--- a/data/xeon.w10885m.xlsx
+++ b/data/xeon.w10885m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floh/Code/sgx-benchmark/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F15E3A-49D9-494C-BE7D-BDFB6AFC3B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B839A1-FE81-9245-A845-EA480BADCFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="9480" windowWidth="27640" windowHeight="16860" activeTab="5" xr2:uid="{CC5653A7-47EC-7741-A8FE-65C1DD72C94E}"/>
   </bookViews>
@@ -55468,10 +55468,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD8A17-FDDA-D549-97FA-F8688488C3E4}">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57654,6 +57654,8828 @@
         <v>39.89</v>
       </c>
     </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>57.14</v>
+      </c>
+      <c r="B199">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C199">
+        <v>40.43</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>56.63</v>
+      </c>
+      <c r="B200">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C200">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>57.26</v>
+      </c>
+      <c r="B201">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="C201">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>55.2</v>
+      </c>
+      <c r="B202">
+        <v>15.43</v>
+      </c>
+      <c r="C202">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>54.28</v>
+      </c>
+      <c r="B203">
+        <v>15.21</v>
+      </c>
+      <c r="C203">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>54.03</v>
+      </c>
+      <c r="B204">
+        <v>15.34</v>
+      </c>
+      <c r="C204">
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>54.72</v>
+      </c>
+      <c r="B205">
+        <v>15.24</v>
+      </c>
+      <c r="C205">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>54.35</v>
+      </c>
+      <c r="B206">
+        <v>15.46</v>
+      </c>
+      <c r="C206">
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>54.14</v>
+      </c>
+      <c r="B207">
+        <v>15.49</v>
+      </c>
+      <c r="C207">
+        <v>38.64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>54.49</v>
+      </c>
+      <c r="B208">
+        <v>15.08</v>
+      </c>
+      <c r="C208">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>54.01</v>
+      </c>
+      <c r="B209">
+        <v>15.34</v>
+      </c>
+      <c r="C209">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>54.31</v>
+      </c>
+      <c r="B210">
+        <v>15.34</v>
+      </c>
+      <c r="C210">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>54.29</v>
+      </c>
+      <c r="B211">
+        <v>15.62</v>
+      </c>
+      <c r="C211">
+        <v>38.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>54.09</v>
+      </c>
+      <c r="B212">
+        <v>15.23</v>
+      </c>
+      <c r="C212">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>54.37</v>
+      </c>
+      <c r="B213">
+        <v>15.09</v>
+      </c>
+      <c r="C213">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>54.87</v>
+      </c>
+      <c r="B214">
+        <v>15.58</v>
+      </c>
+      <c r="C214">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>54.57</v>
+      </c>
+      <c r="B215">
+        <v>15.18</v>
+      </c>
+      <c r="C215">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>54.45</v>
+      </c>
+      <c r="B216">
+        <v>15.46</v>
+      </c>
+      <c r="C216">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>54.54</v>
+      </c>
+      <c r="B217">
+        <v>15.24</v>
+      </c>
+      <c r="C217">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>54.76</v>
+      </c>
+      <c r="B218">
+        <v>15.19</v>
+      </c>
+      <c r="C218">
+        <v>39.549999999999997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>54.78</v>
+      </c>
+      <c r="B219">
+        <v>15.57</v>
+      </c>
+      <c r="C219">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>54.89</v>
+      </c>
+      <c r="B220">
+        <v>15.49</v>
+      </c>
+      <c r="C220">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>54.39</v>
+      </c>
+      <c r="B221">
+        <v>15.42</v>
+      </c>
+      <c r="C221">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>54.13</v>
+      </c>
+      <c r="B222">
+        <v>15.57</v>
+      </c>
+      <c r="C222">
+        <v>38.549999999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>54.55</v>
+      </c>
+      <c r="B223">
+        <v>15.11</v>
+      </c>
+      <c r="C223">
+        <v>39.42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>54.17</v>
+      </c>
+      <c r="B224">
+        <v>15.39</v>
+      </c>
+      <c r="C224">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>54.43</v>
+      </c>
+      <c r="B225">
+        <v>15.66</v>
+      </c>
+      <c r="C225">
+        <v>38.76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>54.61</v>
+      </c>
+      <c r="B226">
+        <v>15.53</v>
+      </c>
+      <c r="C226">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>54.65</v>
+      </c>
+      <c r="B227">
+        <v>15.41</v>
+      </c>
+      <c r="C227">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>54.45</v>
+      </c>
+      <c r="B228">
+        <v>15.43</v>
+      </c>
+      <c r="C228">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>55.02</v>
+      </c>
+      <c r="B229">
+        <v>15.18</v>
+      </c>
+      <c r="C229">
+        <v>39.83</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>54.8</v>
+      </c>
+      <c r="B230">
+        <v>15.49</v>
+      </c>
+      <c r="C230">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>55.03</v>
+      </c>
+      <c r="B231">
+        <v>15.58</v>
+      </c>
+      <c r="C231">
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>54.61</v>
+      </c>
+      <c r="B232">
+        <v>15.47</v>
+      </c>
+      <c r="C232">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>54.93</v>
+      </c>
+      <c r="B233">
+        <v>15.67</v>
+      </c>
+      <c r="C233">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>54.95</v>
+      </c>
+      <c r="B234">
+        <v>15.65</v>
+      </c>
+      <c r="C234">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>54.56</v>
+      </c>
+      <c r="B235">
+        <v>15.31</v>
+      </c>
+      <c r="C235">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>54.54</v>
+      </c>
+      <c r="B236">
+        <v>15.23</v>
+      </c>
+      <c r="C236">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>54.17</v>
+      </c>
+      <c r="B237">
+        <v>15.57</v>
+      </c>
+      <c r="C237">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>54.75</v>
+      </c>
+      <c r="B238">
+        <v>15.88</v>
+      </c>
+      <c r="C238">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>54.66</v>
+      </c>
+      <c r="B239">
+        <v>15.61</v>
+      </c>
+      <c r="C239">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>54.94</v>
+      </c>
+      <c r="B240">
+        <v>15.6</v>
+      </c>
+      <c r="C240">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>54.46</v>
+      </c>
+      <c r="B241">
+        <v>15.56</v>
+      </c>
+      <c r="C241">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>54.67</v>
+      </c>
+      <c r="B242">
+        <v>15.38</v>
+      </c>
+      <c r="C242">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>54.15</v>
+      </c>
+      <c r="B243">
+        <v>15.87</v>
+      </c>
+      <c r="C243">
+        <v>38.270000000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>54.63</v>
+      </c>
+      <c r="B244">
+        <v>15.51</v>
+      </c>
+      <c r="C244">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>54.78</v>
+      </c>
+      <c r="B245">
+        <v>15.58</v>
+      </c>
+      <c r="C245">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>54.38</v>
+      </c>
+      <c r="B246">
+        <v>15.63</v>
+      </c>
+      <c r="C246">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>54.33</v>
+      </c>
+      <c r="B247">
+        <v>15.1</v>
+      </c>
+      <c r="C247">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>54.78</v>
+      </c>
+      <c r="B248">
+        <v>15.36</v>
+      </c>
+      <c r="C248">
+        <v>39.42</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>55.04</v>
+      </c>
+      <c r="B249">
+        <v>15.64</v>
+      </c>
+      <c r="C249">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>54.35</v>
+      </c>
+      <c r="B250">
+        <v>15.62</v>
+      </c>
+      <c r="C250">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>54.35</v>
+      </c>
+      <c r="B251">
+        <v>15.18</v>
+      </c>
+      <c r="C251">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>54.65</v>
+      </c>
+      <c r="B252">
+        <v>15.44</v>
+      </c>
+      <c r="C252">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>54.76</v>
+      </c>
+      <c r="B253">
+        <v>15.93</v>
+      </c>
+      <c r="C253">
+        <v>38.82</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>54.66</v>
+      </c>
+      <c r="B254">
+        <v>15.27</v>
+      </c>
+      <c r="C254">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>54.46</v>
+      </c>
+      <c r="B255">
+        <v>15.54</v>
+      </c>
+      <c r="C255">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>54.91</v>
+      </c>
+      <c r="B256">
+        <v>15.3</v>
+      </c>
+      <c r="C256">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>54.64</v>
+      </c>
+      <c r="B257">
+        <v>15.76</v>
+      </c>
+      <c r="C257">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>54.82</v>
+      </c>
+      <c r="B258">
+        <v>15.33</v>
+      </c>
+      <c r="C258">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>54.2</v>
+      </c>
+      <c r="B259">
+        <v>15.5</v>
+      </c>
+      <c r="C259">
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>54.35</v>
+      </c>
+      <c r="B260">
+        <v>15.44</v>
+      </c>
+      <c r="C260">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>54.85</v>
+      </c>
+      <c r="B261">
+        <v>15.73</v>
+      </c>
+      <c r="C261">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>54.59</v>
+      </c>
+      <c r="B262">
+        <v>15.28</v>
+      </c>
+      <c r="C262">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>54.18</v>
+      </c>
+      <c r="B263">
+        <v>15.47</v>
+      </c>
+      <c r="C263">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>54.25</v>
+      </c>
+      <c r="B264">
+        <v>15.58</v>
+      </c>
+      <c r="C264">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>55.13</v>
+      </c>
+      <c r="B265">
+        <v>15.23</v>
+      </c>
+      <c r="C265">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>54.76</v>
+      </c>
+      <c r="B266">
+        <v>15.28</v>
+      </c>
+      <c r="C266">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>54.3</v>
+      </c>
+      <c r="B267">
+        <v>15.07</v>
+      </c>
+      <c r="C267">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>54.64</v>
+      </c>
+      <c r="B268">
+        <v>15.74</v>
+      </c>
+      <c r="C268">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>54.6</v>
+      </c>
+      <c r="B269">
+        <v>15.4</v>
+      </c>
+      <c r="C269">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>54.36</v>
+      </c>
+      <c r="B270">
+        <v>15.09</v>
+      </c>
+      <c r="C270">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>54.22</v>
+      </c>
+      <c r="B271">
+        <v>15.29</v>
+      </c>
+      <c r="C271">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>54.12</v>
+      </c>
+      <c r="B272">
+        <v>15.04</v>
+      </c>
+      <c r="C272">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>54.31</v>
+      </c>
+      <c r="B273">
+        <v>15.48</v>
+      </c>
+      <c r="C273">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>54.71</v>
+      </c>
+      <c r="B274">
+        <v>15.59</v>
+      </c>
+      <c r="C274">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>54.64</v>
+      </c>
+      <c r="B275">
+        <v>15.81</v>
+      </c>
+      <c r="C275">
+        <v>38.82</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>54.64</v>
+      </c>
+      <c r="B276">
+        <v>15.16</v>
+      </c>
+      <c r="C276">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>54.39</v>
+      </c>
+      <c r="B277">
+        <v>15.25</v>
+      </c>
+      <c r="C277">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>55.48</v>
+      </c>
+      <c r="B278">
+        <v>16.13</v>
+      </c>
+      <c r="C278">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>54.04</v>
+      </c>
+      <c r="B279">
+        <v>15.3</v>
+      </c>
+      <c r="C279">
+        <v>38.729999999999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>55.22</v>
+      </c>
+      <c r="B280">
+        <v>15.78</v>
+      </c>
+      <c r="C280">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>54.47</v>
+      </c>
+      <c r="B281">
+        <v>15.35</v>
+      </c>
+      <c r="C281">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>54.68</v>
+      </c>
+      <c r="B282">
+        <v>15.46</v>
+      </c>
+      <c r="C282">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>55.21</v>
+      </c>
+      <c r="B283">
+        <v>15.59</v>
+      </c>
+      <c r="C283">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>54.81</v>
+      </c>
+      <c r="B284">
+        <v>15.75</v>
+      </c>
+      <c r="C284">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>54.55</v>
+      </c>
+      <c r="B285">
+        <v>15.67</v>
+      </c>
+      <c r="C285">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>54.92</v>
+      </c>
+      <c r="B286">
+        <v>15.25</v>
+      </c>
+      <c r="C286">
+        <v>39.659999999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>55</v>
+      </c>
+      <c r="B287">
+        <v>15.63</v>
+      </c>
+      <c r="C287">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>54.28</v>
+      </c>
+      <c r="B288">
+        <v>15.44</v>
+      </c>
+      <c r="C288">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>54.92</v>
+      </c>
+      <c r="B289">
+        <v>15.55</v>
+      </c>
+      <c r="C289">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>54.35</v>
+      </c>
+      <c r="B290">
+        <v>15.68</v>
+      </c>
+      <c r="C290">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>54.99</v>
+      </c>
+      <c r="B291">
+        <v>15.68</v>
+      </c>
+      <c r="C291">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>54.91</v>
+      </c>
+      <c r="B292">
+        <v>15.67</v>
+      </c>
+      <c r="C292">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>54.96</v>
+      </c>
+      <c r="B293">
+        <v>15.38</v>
+      </c>
+      <c r="C293">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>54.44</v>
+      </c>
+      <c r="B294">
+        <v>15.32</v>
+      </c>
+      <c r="C294">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>54.66</v>
+      </c>
+      <c r="B295">
+        <v>15.68</v>
+      </c>
+      <c r="C295">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>54.41</v>
+      </c>
+      <c r="B296">
+        <v>15.92</v>
+      </c>
+      <c r="C296">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>54.43</v>
+      </c>
+      <c r="B297">
+        <v>15.22</v>
+      </c>
+      <c r="C297">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>54.37</v>
+      </c>
+      <c r="B298">
+        <v>15.64</v>
+      </c>
+      <c r="C298">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>54.35</v>
+      </c>
+      <c r="B299">
+        <v>15.66</v>
+      </c>
+      <c r="C299">
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>54.28</v>
+      </c>
+      <c r="B300">
+        <v>15.35</v>
+      </c>
+      <c r="C300">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>54.42</v>
+      </c>
+      <c r="B301">
+        <v>15.53</v>
+      </c>
+      <c r="C301">
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>54.39</v>
+      </c>
+      <c r="B302">
+        <v>15.6</v>
+      </c>
+      <c r="C302">
+        <v>38.78</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>54.16</v>
+      </c>
+      <c r="B303">
+        <v>15.17</v>
+      </c>
+      <c r="C303">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>54.66</v>
+      </c>
+      <c r="B304">
+        <v>15.37</v>
+      </c>
+      <c r="C304">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>54.43</v>
+      </c>
+      <c r="B305">
+        <v>15.44</v>
+      </c>
+      <c r="C305">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>54.57</v>
+      </c>
+      <c r="B306">
+        <v>15.79</v>
+      </c>
+      <c r="C306">
+        <v>38.76</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>54.67</v>
+      </c>
+      <c r="B307">
+        <v>15.53</v>
+      </c>
+      <c r="C307">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>54.26</v>
+      </c>
+      <c r="B308">
+        <v>15.29</v>
+      </c>
+      <c r="C308">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>54.42</v>
+      </c>
+      <c r="B309">
+        <v>15.44</v>
+      </c>
+      <c r="C309">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>54.38</v>
+      </c>
+      <c r="B310">
+        <v>15.68</v>
+      </c>
+      <c r="C310">
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>54.55</v>
+      </c>
+      <c r="B311">
+        <v>15.14</v>
+      </c>
+      <c r="C311">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>56.26</v>
+      </c>
+      <c r="B312">
+        <v>16.57</v>
+      </c>
+      <c r="C312">
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>54.62</v>
+      </c>
+      <c r="B313">
+        <v>14.99</v>
+      </c>
+      <c r="C313">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>56.89</v>
+      </c>
+      <c r="B314">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C314">
+        <v>40.17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>55.42</v>
+      </c>
+      <c r="B315">
+        <v>15.67</v>
+      </c>
+      <c r="C315">
+        <v>39.74</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>55.8</v>
+      </c>
+      <c r="B316">
+        <v>15.94</v>
+      </c>
+      <c r="C316">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>54.59</v>
+      </c>
+      <c r="B317">
+        <v>15.42</v>
+      </c>
+      <c r="C317">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>54.5</v>
+      </c>
+      <c r="B318">
+        <v>15.63</v>
+      </c>
+      <c r="C318">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>54.7</v>
+      </c>
+      <c r="B319">
+        <v>15.13</v>
+      </c>
+      <c r="C319">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>54.54</v>
+      </c>
+      <c r="B320">
+        <v>15.37</v>
+      </c>
+      <c r="C320">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>54.26</v>
+      </c>
+      <c r="B321">
+        <v>15.22</v>
+      </c>
+      <c r="C321">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>54.65</v>
+      </c>
+      <c r="B322">
+        <v>15.33</v>
+      </c>
+      <c r="C322">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>54.84</v>
+      </c>
+      <c r="B323">
+        <v>15.42</v>
+      </c>
+      <c r="C323">
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>54.93</v>
+      </c>
+      <c r="B324">
+        <v>15.85</v>
+      </c>
+      <c r="C324">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>54.54</v>
+      </c>
+      <c r="B325">
+        <v>15.11</v>
+      </c>
+      <c r="C325">
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>55.39</v>
+      </c>
+      <c r="B326">
+        <v>15.66</v>
+      </c>
+      <c r="C326">
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>58.15</v>
+      </c>
+      <c r="B327">
+        <v>17.13</v>
+      </c>
+      <c r="C327">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>55.66</v>
+      </c>
+      <c r="B328">
+        <v>16.09</v>
+      </c>
+      <c r="C328">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>55.09</v>
+      </c>
+      <c r="B329">
+        <v>15.23</v>
+      </c>
+      <c r="C329">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>55.44</v>
+      </c>
+      <c r="B330">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C330">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>55.04</v>
+      </c>
+      <c r="B331">
+        <v>15.8</v>
+      </c>
+      <c r="C331">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>55.6</v>
+      </c>
+      <c r="B332">
+        <v>15.84</v>
+      </c>
+      <c r="C332">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>55.07</v>
+      </c>
+      <c r="B333">
+        <v>15.64</v>
+      </c>
+      <c r="C333">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>54.18</v>
+      </c>
+      <c r="B334">
+        <v>15.14</v>
+      </c>
+      <c r="C334">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>54.5</v>
+      </c>
+      <c r="B335">
+        <v>15.39</v>
+      </c>
+      <c r="C335">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>54.37</v>
+      </c>
+      <c r="B336">
+        <v>15.08</v>
+      </c>
+      <c r="C336">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>54.32</v>
+      </c>
+      <c r="B337">
+        <v>15.42</v>
+      </c>
+      <c r="C337">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>56.11</v>
+      </c>
+      <c r="B338">
+        <v>15.88</v>
+      </c>
+      <c r="C338">
+        <v>40.22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>54.8</v>
+      </c>
+      <c r="B339">
+        <v>15.31</v>
+      </c>
+      <c r="C339">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>54.94</v>
+      </c>
+      <c r="B340">
+        <v>15.21</v>
+      </c>
+      <c r="C340">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>56.4</v>
+      </c>
+      <c r="B341">
+        <v>15.93</v>
+      </c>
+      <c r="C341">
+        <v>40.47</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>56.29</v>
+      </c>
+      <c r="B342">
+        <v>16.02</v>
+      </c>
+      <c r="C342">
+        <v>40.26</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>58.44</v>
+      </c>
+      <c r="B343">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C343">
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>55.2</v>
+      </c>
+      <c r="B344">
+        <v>15.95</v>
+      </c>
+      <c r="C344">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>55.09</v>
+      </c>
+      <c r="B345">
+        <v>15.33</v>
+      </c>
+      <c r="C345">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>54.13</v>
+      </c>
+      <c r="B346">
+        <v>15.28</v>
+      </c>
+      <c r="C346">
+        <v>38.840000000000003</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>54.1</v>
+      </c>
+      <c r="B347">
+        <v>15.43</v>
+      </c>
+      <c r="C347">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>53.98</v>
+      </c>
+      <c r="B348">
+        <v>15.68</v>
+      </c>
+      <c r="C348">
+        <v>38.29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>54.59</v>
+      </c>
+      <c r="B349">
+        <v>15.54</v>
+      </c>
+      <c r="C349">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>54.64</v>
+      </c>
+      <c r="B350">
+        <v>15.69</v>
+      </c>
+      <c r="C350">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>54.57</v>
+      </c>
+      <c r="B351">
+        <v>15.39</v>
+      </c>
+      <c r="C351">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>54.35</v>
+      </c>
+      <c r="B352">
+        <v>15.65</v>
+      </c>
+      <c r="C352">
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>54.48</v>
+      </c>
+      <c r="B353">
+        <v>15.19</v>
+      </c>
+      <c r="C353">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>55.12</v>
+      </c>
+      <c r="B354">
+        <v>15.44</v>
+      </c>
+      <c r="C354">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>54.4</v>
+      </c>
+      <c r="B355">
+        <v>15.17</v>
+      </c>
+      <c r="C355">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>54.55</v>
+      </c>
+      <c r="B356">
+        <v>15.66</v>
+      </c>
+      <c r="C356">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>55.08</v>
+      </c>
+      <c r="B357">
+        <v>15.52</v>
+      </c>
+      <c r="C357">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>54.24</v>
+      </c>
+      <c r="B358">
+        <v>15.6</v>
+      </c>
+      <c r="C358">
+        <v>38.64</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>55.03</v>
+      </c>
+      <c r="B359">
+        <v>15.39</v>
+      </c>
+      <c r="C359">
+        <v>39.630000000000003</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>54.28</v>
+      </c>
+      <c r="B360">
+        <v>15.71</v>
+      </c>
+      <c r="C360">
+        <v>38.549999999999997</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>55.05</v>
+      </c>
+      <c r="B361">
+        <v>15.28</v>
+      </c>
+      <c r="C361">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>55.01</v>
+      </c>
+      <c r="B362">
+        <v>15.52</v>
+      </c>
+      <c r="C362">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>54.76</v>
+      </c>
+      <c r="B363">
+        <v>15.68</v>
+      </c>
+      <c r="C363">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>54.64</v>
+      </c>
+      <c r="B364">
+        <v>15.46</v>
+      </c>
+      <c r="C364">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>54.57</v>
+      </c>
+      <c r="B365">
+        <v>15.47</v>
+      </c>
+      <c r="C365">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>54.81</v>
+      </c>
+      <c r="B366">
+        <v>15.66</v>
+      </c>
+      <c r="C366">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>54.62</v>
+      </c>
+      <c r="B367">
+        <v>15.25</v>
+      </c>
+      <c r="C367">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>54.75</v>
+      </c>
+      <c r="B368">
+        <v>15.87</v>
+      </c>
+      <c r="C368">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>54.19</v>
+      </c>
+      <c r="B369">
+        <v>15.44</v>
+      </c>
+      <c r="C369">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>54.93</v>
+      </c>
+      <c r="B370">
+        <v>15.52</v>
+      </c>
+      <c r="C370">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>54.67</v>
+      </c>
+      <c r="B371">
+        <v>15.76</v>
+      </c>
+      <c r="C371">
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>54.4</v>
+      </c>
+      <c r="B372">
+        <v>15.31</v>
+      </c>
+      <c r="C372">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>54.81</v>
+      </c>
+      <c r="B373">
+        <v>15.7</v>
+      </c>
+      <c r="C373">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>54.66</v>
+      </c>
+      <c r="B374">
+        <v>15.96</v>
+      </c>
+      <c r="C374">
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>54.65</v>
+      </c>
+      <c r="B375">
+        <v>15.65</v>
+      </c>
+      <c r="C375">
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>54.48</v>
+      </c>
+      <c r="B376">
+        <v>15.65</v>
+      </c>
+      <c r="C376">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>55.3</v>
+      </c>
+      <c r="B377">
+        <v>15.43</v>
+      </c>
+      <c r="C377">
+        <v>39.86</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>54.76</v>
+      </c>
+      <c r="B378">
+        <v>15.43</v>
+      </c>
+      <c r="C378">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>54.36</v>
+      </c>
+      <c r="B379">
+        <v>15.36</v>
+      </c>
+      <c r="C379">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>54.76</v>
+      </c>
+      <c r="B380">
+        <v>15.58</v>
+      </c>
+      <c r="C380">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>54.63</v>
+      </c>
+      <c r="B381">
+        <v>15.79</v>
+      </c>
+      <c r="C381">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>54.84</v>
+      </c>
+      <c r="B382">
+        <v>15.67</v>
+      </c>
+      <c r="C382">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>54.61</v>
+      </c>
+      <c r="B383">
+        <v>15.57</v>
+      </c>
+      <c r="C383">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>54.89</v>
+      </c>
+      <c r="B384">
+        <v>15.49</v>
+      </c>
+      <c r="C384">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>54.74</v>
+      </c>
+      <c r="B385">
+        <v>15.21</v>
+      </c>
+      <c r="C385">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>54.78</v>
+      </c>
+      <c r="B386">
+        <v>15.24</v>
+      </c>
+      <c r="C386">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>54.56</v>
+      </c>
+      <c r="B387">
+        <v>15.31</v>
+      </c>
+      <c r="C387">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>54.66</v>
+      </c>
+      <c r="B388">
+        <v>15.43</v>
+      </c>
+      <c r="C388">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>54.81</v>
+      </c>
+      <c r="B389">
+        <v>15.41</v>
+      </c>
+      <c r="C389">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>54.69</v>
+      </c>
+      <c r="B390">
+        <v>15.46</v>
+      </c>
+      <c r="C390">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>54.54</v>
+      </c>
+      <c r="B391">
+        <v>15.85</v>
+      </c>
+      <c r="C391">
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>54.44</v>
+      </c>
+      <c r="B392">
+        <v>15.36</v>
+      </c>
+      <c r="C392">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>54.79</v>
+      </c>
+      <c r="B393">
+        <v>15.73</v>
+      </c>
+      <c r="C393">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>54.76</v>
+      </c>
+      <c r="B394">
+        <v>15.19</v>
+      </c>
+      <c r="C394">
+        <v>39.549999999999997</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>54.56</v>
+      </c>
+      <c r="B395">
+        <v>15.51</v>
+      </c>
+      <c r="C395">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>54.74</v>
+      </c>
+      <c r="B396">
+        <v>15.42</v>
+      </c>
+      <c r="C396">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>54.61</v>
+      </c>
+      <c r="B397">
+        <v>15.73</v>
+      </c>
+      <c r="C397">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>54.51</v>
+      </c>
+      <c r="B398">
+        <v>15.46</v>
+      </c>
+      <c r="C398">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>54.41</v>
+      </c>
+      <c r="B399">
+        <v>16</v>
+      </c>
+      <c r="C399">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>54.44</v>
+      </c>
+      <c r="B400">
+        <v>15.66</v>
+      </c>
+      <c r="C400">
+        <v>38.76</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>54.45</v>
+      </c>
+      <c r="B401">
+        <v>15.77</v>
+      </c>
+      <c r="C401">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>54.25</v>
+      </c>
+      <c r="B402">
+        <v>15.62</v>
+      </c>
+      <c r="C402">
+        <v>38.619999999999997</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>54.26</v>
+      </c>
+      <c r="B403">
+        <v>15.05</v>
+      </c>
+      <c r="C403">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>54.22</v>
+      </c>
+      <c r="B404">
+        <v>15.54</v>
+      </c>
+      <c r="C404">
+        <v>38.67</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>54.48</v>
+      </c>
+      <c r="B405">
+        <v>15.72</v>
+      </c>
+      <c r="C405">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>54.54</v>
+      </c>
+      <c r="B406">
+        <v>15.67</v>
+      </c>
+      <c r="C406">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>54.44</v>
+      </c>
+      <c r="B407">
+        <v>15.49</v>
+      </c>
+      <c r="C407">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>54.58</v>
+      </c>
+      <c r="B408">
+        <v>15.34</v>
+      </c>
+      <c r="C408">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>54.5</v>
+      </c>
+      <c r="B409">
+        <v>14.97</v>
+      </c>
+      <c r="C409">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>54.19</v>
+      </c>
+      <c r="B410">
+        <v>15.46</v>
+      </c>
+      <c r="C410">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>54.77</v>
+      </c>
+      <c r="B411">
+        <v>15.54</v>
+      </c>
+      <c r="C411">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>54.59</v>
+      </c>
+      <c r="B412">
+        <v>14.76</v>
+      </c>
+      <c r="C412">
+        <v>39.82</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>54.5</v>
+      </c>
+      <c r="B413">
+        <v>15.16</v>
+      </c>
+      <c r="C413">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>54.1</v>
+      </c>
+      <c r="B414">
+        <v>15.78</v>
+      </c>
+      <c r="C414">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>54.12</v>
+      </c>
+      <c r="B415">
+        <v>15.74</v>
+      </c>
+      <c r="C415">
+        <v>38.36</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>54.39</v>
+      </c>
+      <c r="B416">
+        <v>15.46</v>
+      </c>
+      <c r="C416">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>54.47</v>
+      </c>
+      <c r="B417">
+        <v>15.37</v>
+      </c>
+      <c r="C417">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>53.83</v>
+      </c>
+      <c r="B418">
+        <v>15.28</v>
+      </c>
+      <c r="C418">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>54.82</v>
+      </c>
+      <c r="B419">
+        <v>15.45</v>
+      </c>
+      <c r="C419">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>54.78</v>
+      </c>
+      <c r="B420">
+        <v>15.68</v>
+      </c>
+      <c r="C420">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>54.55</v>
+      </c>
+      <c r="B421">
+        <v>15.4</v>
+      </c>
+      <c r="C421">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>54.69</v>
+      </c>
+      <c r="B422">
+        <v>15.77</v>
+      </c>
+      <c r="C422">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>54.94</v>
+      </c>
+      <c r="B423">
+        <v>15.53</v>
+      </c>
+      <c r="C423">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>54.82</v>
+      </c>
+      <c r="B424">
+        <v>15.61</v>
+      </c>
+      <c r="C424">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>54.72</v>
+      </c>
+      <c r="B425">
+        <v>15.37</v>
+      </c>
+      <c r="C425">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>54.82</v>
+      </c>
+      <c r="B426">
+        <v>15.5</v>
+      </c>
+      <c r="C426">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>54.71</v>
+      </c>
+      <c r="B427">
+        <v>15.75</v>
+      </c>
+      <c r="C427">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>54.57</v>
+      </c>
+      <c r="B428">
+        <v>15.48</v>
+      </c>
+      <c r="C428">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>54.73</v>
+      </c>
+      <c r="B429">
+        <v>15.26</v>
+      </c>
+      <c r="C429">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>54.55</v>
+      </c>
+      <c r="B430">
+        <v>15.51</v>
+      </c>
+      <c r="C430">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>54.85</v>
+      </c>
+      <c r="B431">
+        <v>15.7</v>
+      </c>
+      <c r="C431">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>54.65</v>
+      </c>
+      <c r="B432">
+        <v>15.97</v>
+      </c>
+      <c r="C432">
+        <v>38.67</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>54.54</v>
+      </c>
+      <c r="B433">
+        <v>15.49</v>
+      </c>
+      <c r="C433">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>54.76</v>
+      </c>
+      <c r="B434">
+        <v>15.29</v>
+      </c>
+      <c r="C434">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>54.57</v>
+      </c>
+      <c r="B435">
+        <v>15.65</v>
+      </c>
+      <c r="C435">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>54.79</v>
+      </c>
+      <c r="B436">
+        <v>15.66</v>
+      </c>
+      <c r="C436">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>54.94</v>
+      </c>
+      <c r="B437">
+        <v>15.87</v>
+      </c>
+      <c r="C437">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>54.68</v>
+      </c>
+      <c r="B438">
+        <v>15.42</v>
+      </c>
+      <c r="C438">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>54.64</v>
+      </c>
+      <c r="B439">
+        <v>15.61</v>
+      </c>
+      <c r="C439">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>54.86</v>
+      </c>
+      <c r="B440">
+        <v>15.67</v>
+      </c>
+      <c r="C440">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>54.51</v>
+      </c>
+      <c r="B441">
+        <v>15.58</v>
+      </c>
+      <c r="C441">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>54.51</v>
+      </c>
+      <c r="B442">
+        <v>15.45</v>
+      </c>
+      <c r="C442">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>54.56</v>
+      </c>
+      <c r="B443">
+        <v>15.5</v>
+      </c>
+      <c r="C443">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>54.67</v>
+      </c>
+      <c r="B444">
+        <v>15.47</v>
+      </c>
+      <c r="C444">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>54.58</v>
+      </c>
+      <c r="B445">
+        <v>15.5</v>
+      </c>
+      <c r="C445">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>54.7</v>
+      </c>
+      <c r="B446">
+        <v>15.42</v>
+      </c>
+      <c r="C446">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>54.66</v>
+      </c>
+      <c r="B447">
+        <v>15.65</v>
+      </c>
+      <c r="C447">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>54.57</v>
+      </c>
+      <c r="B448">
+        <v>15.5</v>
+      </c>
+      <c r="C448">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>54.43</v>
+      </c>
+      <c r="B449">
+        <v>15.76</v>
+      </c>
+      <c r="C449">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>54.61</v>
+      </c>
+      <c r="B450">
+        <v>15.87</v>
+      </c>
+      <c r="C450">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>54.95</v>
+      </c>
+      <c r="B451">
+        <v>15.76</v>
+      </c>
+      <c r="C451">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>54.72</v>
+      </c>
+      <c r="B452">
+        <v>15.29</v>
+      </c>
+      <c r="C452">
+        <v>39.42</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>55.07</v>
+      </c>
+      <c r="B453">
+        <v>15.85</v>
+      </c>
+      <c r="C453">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>54.97</v>
+      </c>
+      <c r="B454">
+        <v>15.49</v>
+      </c>
+      <c r="C454">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>54.57</v>
+      </c>
+      <c r="B455">
+        <v>15.59</v>
+      </c>
+      <c r="C455">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>54.6</v>
+      </c>
+      <c r="B456">
+        <v>15.51</v>
+      </c>
+      <c r="C456">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>54.61</v>
+      </c>
+      <c r="B457">
+        <v>15.2</v>
+      </c>
+      <c r="C457">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>54.83</v>
+      </c>
+      <c r="B458">
+        <v>15.37</v>
+      </c>
+      <c r="C458">
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>54.61</v>
+      </c>
+      <c r="B459">
+        <v>15.49</v>
+      </c>
+      <c r="C459">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>55.07</v>
+      </c>
+      <c r="B460">
+        <v>15.75</v>
+      </c>
+      <c r="C460">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>54.62</v>
+      </c>
+      <c r="B461">
+        <v>15.61</v>
+      </c>
+      <c r="C461">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>55</v>
+      </c>
+      <c r="B462">
+        <v>15.43</v>
+      </c>
+      <c r="C462">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>54.8</v>
+      </c>
+      <c r="B463">
+        <v>15.25</v>
+      </c>
+      <c r="C463">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>55.07</v>
+      </c>
+      <c r="B464">
+        <v>15.95</v>
+      </c>
+      <c r="C464">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>54.78</v>
+      </c>
+      <c r="B465">
+        <v>15.51</v>
+      </c>
+      <c r="C465">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>54.96</v>
+      </c>
+      <c r="B466">
+        <v>15.45</v>
+      </c>
+      <c r="C466">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>54.79</v>
+      </c>
+      <c r="B467">
+        <v>15.55</v>
+      </c>
+      <c r="C467">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>54.74</v>
+      </c>
+      <c r="B468">
+        <v>15.62</v>
+      </c>
+      <c r="C468">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>54.65</v>
+      </c>
+      <c r="B469">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C469">
+        <v>38.590000000000003</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>54.53</v>
+      </c>
+      <c r="B470">
+        <v>15.69</v>
+      </c>
+      <c r="C470">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>54.76</v>
+      </c>
+      <c r="B471">
+        <v>15.32</v>
+      </c>
+      <c r="C471">
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>54.38</v>
+      </c>
+      <c r="B472">
+        <v>15.39</v>
+      </c>
+      <c r="C472">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>54.65</v>
+      </c>
+      <c r="B473">
+        <v>15.6</v>
+      </c>
+      <c r="C473">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>54.09</v>
+      </c>
+      <c r="B474">
+        <v>15.43</v>
+      </c>
+      <c r="C474">
+        <v>38.65</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>54.64</v>
+      </c>
+      <c r="B475">
+        <v>15.49</v>
+      </c>
+      <c r="C475">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>54.14</v>
+      </c>
+      <c r="B476">
+        <v>15.32</v>
+      </c>
+      <c r="C476">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>54.66</v>
+      </c>
+      <c r="B477">
+        <v>15.51</v>
+      </c>
+      <c r="C477">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>54.61</v>
+      </c>
+      <c r="B478">
+        <v>15.7</v>
+      </c>
+      <c r="C478">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>55.16</v>
+      </c>
+      <c r="B479">
+        <v>15.76</v>
+      </c>
+      <c r="C479">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>54.63</v>
+      </c>
+      <c r="B480">
+        <v>15.81</v>
+      </c>
+      <c r="C480">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>55.1</v>
+      </c>
+      <c r="B481">
+        <v>15.24</v>
+      </c>
+      <c r="C481">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>55.13</v>
+      </c>
+      <c r="B482">
+        <v>15.38</v>
+      </c>
+      <c r="C482">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>54.9</v>
+      </c>
+      <c r="B483">
+        <v>15.93</v>
+      </c>
+      <c r="C483">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>54.92</v>
+      </c>
+      <c r="B484">
+        <v>15.36</v>
+      </c>
+      <c r="C484">
+        <v>39.549999999999997</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>54.79</v>
+      </c>
+      <c r="B485">
+        <v>15.2</v>
+      </c>
+      <c r="C485">
+        <v>39.58</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>54.9</v>
+      </c>
+      <c r="B486">
+        <v>15.19</v>
+      </c>
+      <c r="C486">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>54.85</v>
+      </c>
+      <c r="B487">
+        <v>15.54</v>
+      </c>
+      <c r="C487">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>55.29</v>
+      </c>
+      <c r="B488">
+        <v>15.74</v>
+      </c>
+      <c r="C488">
+        <v>39.54</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>54.58</v>
+      </c>
+      <c r="B489">
+        <v>15.25</v>
+      </c>
+      <c r="C489">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>55.08</v>
+      </c>
+      <c r="B490">
+        <v>15.16</v>
+      </c>
+      <c r="C490">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>54.93</v>
+      </c>
+      <c r="B491">
+        <v>15.94</v>
+      </c>
+      <c r="C491">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>54.75</v>
+      </c>
+      <c r="B492">
+        <v>15.61</v>
+      </c>
+      <c r="C492">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>55.01</v>
+      </c>
+      <c r="B493">
+        <v>15.81</v>
+      </c>
+      <c r="C493">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>54.86</v>
+      </c>
+      <c r="B494">
+        <v>15.52</v>
+      </c>
+      <c r="C494">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>54.69</v>
+      </c>
+      <c r="B495">
+        <v>15.65</v>
+      </c>
+      <c r="C495">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>54.93</v>
+      </c>
+      <c r="B496">
+        <v>15.56</v>
+      </c>
+      <c r="C496">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>54.66</v>
+      </c>
+      <c r="B497">
+        <v>14.86</v>
+      </c>
+      <c r="C497">
+        <v>39.79</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>54.78</v>
+      </c>
+      <c r="B498">
+        <v>15.5</v>
+      </c>
+      <c r="C498">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>54.57</v>
+      </c>
+      <c r="B499">
+        <v>15.63</v>
+      </c>
+      <c r="C499">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>54.79</v>
+      </c>
+      <c r="B500">
+        <v>15.31</v>
+      </c>
+      <c r="C500">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>54.1</v>
+      </c>
+      <c r="B501">
+        <v>15.81</v>
+      </c>
+      <c r="C501">
+        <v>38.270000000000003</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>55.08</v>
+      </c>
+      <c r="B502">
+        <v>15.8</v>
+      </c>
+      <c r="C502">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>54.5</v>
+      </c>
+      <c r="B503">
+        <v>15.32</v>
+      </c>
+      <c r="C503">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>54.65</v>
+      </c>
+      <c r="B504">
+        <v>15.51</v>
+      </c>
+      <c r="C504">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>54.81</v>
+      </c>
+      <c r="B505">
+        <v>15.76</v>
+      </c>
+      <c r="C505">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>54.84</v>
+      </c>
+      <c r="B506">
+        <v>15.62</v>
+      </c>
+      <c r="C506">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>54.99</v>
+      </c>
+      <c r="B507">
+        <v>15.85</v>
+      </c>
+      <c r="C507">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>54.94</v>
+      </c>
+      <c r="B508">
+        <v>15.93</v>
+      </c>
+      <c r="C508">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>55.11</v>
+      </c>
+      <c r="B509">
+        <v>15.6</v>
+      </c>
+      <c r="C509">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>54.82</v>
+      </c>
+      <c r="B510">
+        <v>14.93</v>
+      </c>
+      <c r="C510">
+        <v>39.880000000000003</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>54.69</v>
+      </c>
+      <c r="B511">
+        <v>15.33</v>
+      </c>
+      <c r="C511">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>54.48</v>
+      </c>
+      <c r="B512">
+        <v>15.55</v>
+      </c>
+      <c r="C512">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>54.64</v>
+      </c>
+      <c r="B513">
+        <v>15.61</v>
+      </c>
+      <c r="C513">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>55.01</v>
+      </c>
+      <c r="B514">
+        <v>15.74</v>
+      </c>
+      <c r="C514">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>55.1</v>
+      </c>
+      <c r="B515">
+        <v>15.71</v>
+      </c>
+      <c r="C515">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>54.88</v>
+      </c>
+      <c r="B516">
+        <v>15.35</v>
+      </c>
+      <c r="C516">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>54.9</v>
+      </c>
+      <c r="B517">
+        <v>15.76</v>
+      </c>
+      <c r="C517">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>54.22</v>
+      </c>
+      <c r="B518">
+        <v>15.56</v>
+      </c>
+      <c r="C518">
+        <v>38.65</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>54.91</v>
+      </c>
+      <c r="B519">
+        <v>15.76</v>
+      </c>
+      <c r="C519">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>54.77</v>
+      </c>
+      <c r="B520">
+        <v>15.7</v>
+      </c>
+      <c r="C520">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>54.62</v>
+      </c>
+      <c r="B521">
+        <v>15.64</v>
+      </c>
+      <c r="C521">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>54.93</v>
+      </c>
+      <c r="B522">
+        <v>15.79</v>
+      </c>
+      <c r="C522">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>54.91</v>
+      </c>
+      <c r="B523">
+        <v>15.7</v>
+      </c>
+      <c r="C523">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>54.48</v>
+      </c>
+      <c r="B524">
+        <v>15.96</v>
+      </c>
+      <c r="C524">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>54.72</v>
+      </c>
+      <c r="B525">
+        <v>15.39</v>
+      </c>
+      <c r="C525">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>54.86</v>
+      </c>
+      <c r="B526">
+        <v>15.6</v>
+      </c>
+      <c r="C526">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>55.22</v>
+      </c>
+      <c r="B527">
+        <v>15.67</v>
+      </c>
+      <c r="C527">
+        <v>39.54</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>54.9</v>
+      </c>
+      <c r="B528">
+        <v>15.24</v>
+      </c>
+      <c r="C528">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>54.54</v>
+      </c>
+      <c r="B529">
+        <v>15.57</v>
+      </c>
+      <c r="C529">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>54.76</v>
+      </c>
+      <c r="B530">
+        <v>15.19</v>
+      </c>
+      <c r="C530">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>54.8</v>
+      </c>
+      <c r="B531">
+        <v>15.55</v>
+      </c>
+      <c r="C531">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>54.04</v>
+      </c>
+      <c r="B532">
+        <v>15.58</v>
+      </c>
+      <c r="C532">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>54.55</v>
+      </c>
+      <c r="B533">
+        <v>15.06</v>
+      </c>
+      <c r="C533">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>54.38</v>
+      </c>
+      <c r="B534">
+        <v>15.03</v>
+      </c>
+      <c r="C534">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>54.55</v>
+      </c>
+      <c r="B535">
+        <v>15.27</v>
+      </c>
+      <c r="C535">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>54.11</v>
+      </c>
+      <c r="B536">
+        <v>15.08</v>
+      </c>
+      <c r="C536">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>54.88</v>
+      </c>
+      <c r="B537">
+        <v>15.75</v>
+      </c>
+      <c r="C537">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>54.91</v>
+      </c>
+      <c r="B538">
+        <v>15.7</v>
+      </c>
+      <c r="C538">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>54.93</v>
+      </c>
+      <c r="B539">
+        <v>15.42</v>
+      </c>
+      <c r="C539">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>54.46</v>
+      </c>
+      <c r="B540">
+        <v>15.29</v>
+      </c>
+      <c r="C540">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>55.08</v>
+      </c>
+      <c r="B541">
+        <v>15.6</v>
+      </c>
+      <c r="C541">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>54.83</v>
+      </c>
+      <c r="B542">
+        <v>15.81</v>
+      </c>
+      <c r="C542">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>55.08</v>
+      </c>
+      <c r="B543">
+        <v>16.03</v>
+      </c>
+      <c r="C543">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>54.77</v>
+      </c>
+      <c r="B544">
+        <v>15.65</v>
+      </c>
+      <c r="C544">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>54.77</v>
+      </c>
+      <c r="B545">
+        <v>15.89</v>
+      </c>
+      <c r="C545">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>54.67</v>
+      </c>
+      <c r="B546">
+        <v>15.73</v>
+      </c>
+      <c r="C546">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>54.8</v>
+      </c>
+      <c r="B547">
+        <v>15.63</v>
+      </c>
+      <c r="C547">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>54.63</v>
+      </c>
+      <c r="B548">
+        <v>15.76</v>
+      </c>
+      <c r="C548">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>54.72</v>
+      </c>
+      <c r="B549">
+        <v>15.18</v>
+      </c>
+      <c r="C549">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>55.06</v>
+      </c>
+      <c r="B550">
+        <v>15.14</v>
+      </c>
+      <c r="C550">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>54.94</v>
+      </c>
+      <c r="B551">
+        <v>15.64</v>
+      </c>
+      <c r="C551">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>54.73</v>
+      </c>
+      <c r="B552">
+        <v>15.37</v>
+      </c>
+      <c r="C552">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>54.48</v>
+      </c>
+      <c r="B553">
+        <v>15.59</v>
+      </c>
+      <c r="C553">
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>54.78</v>
+      </c>
+      <c r="B554">
+        <v>15.77</v>
+      </c>
+      <c r="C554">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>54.71</v>
+      </c>
+      <c r="B555">
+        <v>15.81</v>
+      </c>
+      <c r="C555">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>54.9</v>
+      </c>
+      <c r="B556">
+        <v>15.54</v>
+      </c>
+      <c r="C556">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>54.75</v>
+      </c>
+      <c r="B557">
+        <v>15.52</v>
+      </c>
+      <c r="C557">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>55.17</v>
+      </c>
+      <c r="B558">
+        <v>15.65</v>
+      </c>
+      <c r="C558">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>54.88</v>
+      </c>
+      <c r="B559">
+        <v>15.37</v>
+      </c>
+      <c r="C559">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>54.71</v>
+      </c>
+      <c r="B560">
+        <v>15.23</v>
+      </c>
+      <c r="C560">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>54.32</v>
+      </c>
+      <c r="B561">
+        <v>15.31</v>
+      </c>
+      <c r="C561">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>54.7</v>
+      </c>
+      <c r="B562">
+        <v>15.34</v>
+      </c>
+      <c r="C562">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>54.88</v>
+      </c>
+      <c r="B563">
+        <v>15.86</v>
+      </c>
+      <c r="C563">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>54.61</v>
+      </c>
+      <c r="B564">
+        <v>15.06</v>
+      </c>
+      <c r="C564">
+        <v>39.549999999999997</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>54.81</v>
+      </c>
+      <c r="B565">
+        <v>15.32</v>
+      </c>
+      <c r="C565">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>54.66</v>
+      </c>
+      <c r="B566">
+        <v>15.75</v>
+      </c>
+      <c r="C566">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>54.24</v>
+      </c>
+      <c r="B567">
+        <v>15.71</v>
+      </c>
+      <c r="C567">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>54.07</v>
+      </c>
+      <c r="B568">
+        <v>15.63</v>
+      </c>
+      <c r="C568">
+        <v>38.42</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>54.28</v>
+      </c>
+      <c r="B569">
+        <v>15.63</v>
+      </c>
+      <c r="C569">
+        <v>38.630000000000003</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>54.51</v>
+      </c>
+      <c r="B570">
+        <v>15.41</v>
+      </c>
+      <c r="C570">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>54.67</v>
+      </c>
+      <c r="B571">
+        <v>15.86</v>
+      </c>
+      <c r="C571">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>54.49</v>
+      </c>
+      <c r="B572">
+        <v>15.78</v>
+      </c>
+      <c r="C572">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>54.73</v>
+      </c>
+      <c r="B573">
+        <v>15.68</v>
+      </c>
+      <c r="C573">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>54.91</v>
+      </c>
+      <c r="B574">
+        <v>15.19</v>
+      </c>
+      <c r="C574">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>54.88</v>
+      </c>
+      <c r="B575">
+        <v>15.95</v>
+      </c>
+      <c r="C575">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>54.59</v>
+      </c>
+      <c r="B576">
+        <v>15.19</v>
+      </c>
+      <c r="C576">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>54.51</v>
+      </c>
+      <c r="B577">
+        <v>15.3</v>
+      </c>
+      <c r="C577">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>54.44</v>
+      </c>
+      <c r="B578">
+        <v>15.65</v>
+      </c>
+      <c r="C578">
+        <v>38.78</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>54.75</v>
+      </c>
+      <c r="B579">
+        <v>15.31</v>
+      </c>
+      <c r="C579">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>54.43</v>
+      </c>
+      <c r="B580">
+        <v>15.35</v>
+      </c>
+      <c r="C580">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>54.63</v>
+      </c>
+      <c r="B581">
+        <v>15.25</v>
+      </c>
+      <c r="C581">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>54.86</v>
+      </c>
+      <c r="B582">
+        <v>15.49</v>
+      </c>
+      <c r="C582">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>54.68</v>
+      </c>
+      <c r="B583">
+        <v>15.76</v>
+      </c>
+      <c r="C583">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>54.64</v>
+      </c>
+      <c r="B584">
+        <v>15.64</v>
+      </c>
+      <c r="C584">
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>55.04</v>
+      </c>
+      <c r="B585">
+        <v>15.89</v>
+      </c>
+      <c r="C585">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>54.88</v>
+      </c>
+      <c r="B586">
+        <v>15.4</v>
+      </c>
+      <c r="C586">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>54.49</v>
+      </c>
+      <c r="B587">
+        <v>15.11</v>
+      </c>
+      <c r="C587">
+        <v>39.369999999999997</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>54.66</v>
+      </c>
+      <c r="B588">
+        <v>15.25</v>
+      </c>
+      <c r="C588">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>54.28</v>
+      </c>
+      <c r="B589">
+        <v>15.24</v>
+      </c>
+      <c r="C589">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>54.09</v>
+      </c>
+      <c r="B590">
+        <v>15.08</v>
+      </c>
+      <c r="C590">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>54.44</v>
+      </c>
+      <c r="B591">
+        <v>15.71</v>
+      </c>
+      <c r="C591">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>54.43</v>
+      </c>
+      <c r="B592">
+        <v>15.67</v>
+      </c>
+      <c r="C592">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>54.25</v>
+      </c>
+      <c r="B593">
+        <v>15.8</v>
+      </c>
+      <c r="C593">
+        <v>38.43</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>54.72</v>
+      </c>
+      <c r="B594">
+        <v>15.72</v>
+      </c>
+      <c r="C594">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>55.13</v>
+      </c>
+      <c r="B595">
+        <v>15.26</v>
+      </c>
+      <c r="C595">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>54.58</v>
+      </c>
+      <c r="B596">
+        <v>15.63</v>
+      </c>
+      <c r="C596">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>55.11</v>
+      </c>
+      <c r="B597">
+        <v>15.41</v>
+      </c>
+      <c r="C597">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>54.46</v>
+      </c>
+      <c r="B598">
+        <v>15.7</v>
+      </c>
+      <c r="C598">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>54.56</v>
+      </c>
+      <c r="B599">
+        <v>15.17</v>
+      </c>
+      <c r="C599">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>54.91</v>
+      </c>
+      <c r="B600">
+        <v>15.66</v>
+      </c>
+      <c r="C600">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>54.53</v>
+      </c>
+      <c r="B601">
+        <v>15.9</v>
+      </c>
+      <c r="C601">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>54.57</v>
+      </c>
+      <c r="B602">
+        <v>15.47</v>
+      </c>
+      <c r="C602">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>54.46</v>
+      </c>
+      <c r="B603">
+        <v>15.5</v>
+      </c>
+      <c r="C603">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>54.81</v>
+      </c>
+      <c r="B604">
+        <v>15.78</v>
+      </c>
+      <c r="C604">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>54.89</v>
+      </c>
+      <c r="B605">
+        <v>16.09</v>
+      </c>
+      <c r="C605">
+        <v>38.79</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>54.61</v>
+      </c>
+      <c r="B606">
+        <v>15.41</v>
+      </c>
+      <c r="C606">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>55.18</v>
+      </c>
+      <c r="B607">
+        <v>15.48</v>
+      </c>
+      <c r="C607">
+        <v>39.69</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>54.79</v>
+      </c>
+      <c r="B608">
+        <v>15.63</v>
+      </c>
+      <c r="C608">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>55</v>
+      </c>
+      <c r="B609">
+        <v>15.23</v>
+      </c>
+      <c r="C609">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>55.39</v>
+      </c>
+      <c r="B610">
+        <v>15.99</v>
+      </c>
+      <c r="C610">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>54.94</v>
+      </c>
+      <c r="B611">
+        <v>15.9</v>
+      </c>
+      <c r="C611">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>54.5</v>
+      </c>
+      <c r="B612">
+        <v>15.74</v>
+      </c>
+      <c r="C612">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>54.59</v>
+      </c>
+      <c r="B613">
+        <v>15.34</v>
+      </c>
+      <c r="C613">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>54.88</v>
+      </c>
+      <c r="B614">
+        <v>15.58</v>
+      </c>
+      <c r="C614">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>54.72</v>
+      </c>
+      <c r="B615">
+        <v>15.37</v>
+      </c>
+      <c r="C615">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>54.75</v>
+      </c>
+      <c r="B616">
+        <v>15.63</v>
+      </c>
+      <c r="C616">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>54.28</v>
+      </c>
+      <c r="B617">
+        <v>15.61</v>
+      </c>
+      <c r="C617">
+        <v>38.65</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>54.69</v>
+      </c>
+      <c r="B618">
+        <v>15.58</v>
+      </c>
+      <c r="C618">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>54.78</v>
+      </c>
+      <c r="B619">
+        <v>15.77</v>
+      </c>
+      <c r="C619">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>54.75</v>
+      </c>
+      <c r="B620">
+        <v>15.77</v>
+      </c>
+      <c r="C620">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>54.27</v>
+      </c>
+      <c r="B621">
+        <v>15.17</v>
+      </c>
+      <c r="C621">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>54.56</v>
+      </c>
+      <c r="B622">
+        <v>15.38</v>
+      </c>
+      <c r="C622">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>54.64</v>
+      </c>
+      <c r="B623">
+        <v>15.33</v>
+      </c>
+      <c r="C623">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>54.49</v>
+      </c>
+      <c r="B624">
+        <v>15.06</v>
+      </c>
+      <c r="C624">
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>54.57</v>
+      </c>
+      <c r="B625">
+        <v>15.16</v>
+      </c>
+      <c r="C625">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>54.76</v>
+      </c>
+      <c r="B626">
+        <v>15.43</v>
+      </c>
+      <c r="C626">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>54.53</v>
+      </c>
+      <c r="B627">
+        <v>15.85</v>
+      </c>
+      <c r="C627">
+        <v>38.67</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>55.03</v>
+      </c>
+      <c r="B628">
+        <v>15.42</v>
+      </c>
+      <c r="C628">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>54.99</v>
+      </c>
+      <c r="B629">
+        <v>15.46</v>
+      </c>
+      <c r="C629">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>54.49</v>
+      </c>
+      <c r="B630">
+        <v>15.61</v>
+      </c>
+      <c r="C630">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>54.9</v>
+      </c>
+      <c r="B631">
+        <v>15.57</v>
+      </c>
+      <c r="C631">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>54.88</v>
+      </c>
+      <c r="B632">
+        <v>15.07</v>
+      </c>
+      <c r="C632">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>54.93</v>
+      </c>
+      <c r="B633">
+        <v>15.25</v>
+      </c>
+      <c r="C633">
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>54.62</v>
+      </c>
+      <c r="B634">
+        <v>15.95</v>
+      </c>
+      <c r="C634">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>54.81</v>
+      </c>
+      <c r="B635">
+        <v>15.75</v>
+      </c>
+      <c r="C635">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>54.9</v>
+      </c>
+      <c r="B636">
+        <v>15.96</v>
+      </c>
+      <c r="C636">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>54.78</v>
+      </c>
+      <c r="B637">
+        <v>15.6</v>
+      </c>
+      <c r="C637">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>54.95</v>
+      </c>
+      <c r="B638">
+        <v>15.44</v>
+      </c>
+      <c r="C638">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>54.87</v>
+      </c>
+      <c r="B639">
+        <v>15.48</v>
+      </c>
+      <c r="C639">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>55.02</v>
+      </c>
+      <c r="B640">
+        <v>15.6</v>
+      </c>
+      <c r="C640">
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>54.89</v>
+      </c>
+      <c r="B641">
+        <v>15.27</v>
+      </c>
+      <c r="C641">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>54.57</v>
+      </c>
+      <c r="B642">
+        <v>15.71</v>
+      </c>
+      <c r="C642">
+        <v>38.840000000000003</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>54.66</v>
+      </c>
+      <c r="B643">
+        <v>15.65</v>
+      </c>
+      <c r="C643">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>54.94</v>
+      </c>
+      <c r="B644">
+        <v>15.4</v>
+      </c>
+      <c r="C644">
+        <v>39.54</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>55.12</v>
+      </c>
+      <c r="B645">
+        <v>15.72</v>
+      </c>
+      <c r="C645">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>55.1</v>
+      </c>
+      <c r="B646">
+        <v>15.62</v>
+      </c>
+      <c r="C646">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>55.07</v>
+      </c>
+      <c r="B647">
+        <v>15.33</v>
+      </c>
+      <c r="C647">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>54.73</v>
+      </c>
+      <c r="B648">
+        <v>15.76</v>
+      </c>
+      <c r="C648">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>54.4</v>
+      </c>
+      <c r="B649">
+        <v>15.69</v>
+      </c>
+      <c r="C649">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>54.44</v>
+      </c>
+      <c r="B650">
+        <v>15.35</v>
+      </c>
+      <c r="C650">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>54.57</v>
+      </c>
+      <c r="B651">
+        <v>15.53</v>
+      </c>
+      <c r="C651">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>54.89</v>
+      </c>
+      <c r="B652">
+        <v>15.61</v>
+      </c>
+      <c r="C652">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>54.82</v>
+      </c>
+      <c r="B653">
+        <v>15.47</v>
+      </c>
+      <c r="C653">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>54.36</v>
+      </c>
+      <c r="B654">
+        <v>15.66</v>
+      </c>
+      <c r="C654">
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>54.81</v>
+      </c>
+      <c r="B655">
+        <v>15.05</v>
+      </c>
+      <c r="C655">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>54.25</v>
+      </c>
+      <c r="B656">
+        <v>15.27</v>
+      </c>
+      <c r="C656">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>54.7</v>
+      </c>
+      <c r="B657">
+        <v>15.8</v>
+      </c>
+      <c r="C657">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>54.99</v>
+      </c>
+      <c r="B658">
+        <v>15.63</v>
+      </c>
+      <c r="C658">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>54.67</v>
+      </c>
+      <c r="B659">
+        <v>15.61</v>
+      </c>
+      <c r="C659">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>54.63</v>
+      </c>
+      <c r="B660">
+        <v>15.51</v>
+      </c>
+      <c r="C660">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>54.67</v>
+      </c>
+      <c r="B661">
+        <v>15.35</v>
+      </c>
+      <c r="C661">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>54.8</v>
+      </c>
+      <c r="B662">
+        <v>15.76</v>
+      </c>
+      <c r="C662">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>55.29</v>
+      </c>
+      <c r="B663">
+        <v>15.37</v>
+      </c>
+      <c r="C663">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>54.65</v>
+      </c>
+      <c r="B664">
+        <v>15.67</v>
+      </c>
+      <c r="C664">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>54.78</v>
+      </c>
+      <c r="B665">
+        <v>15.75</v>
+      </c>
+      <c r="C665">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>54.78</v>
+      </c>
+      <c r="B666">
+        <v>15.43</v>
+      </c>
+      <c r="C666">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>54.84</v>
+      </c>
+      <c r="B667">
+        <v>15.37</v>
+      </c>
+      <c r="C667">
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>54.96</v>
+      </c>
+      <c r="B668">
+        <v>15.71</v>
+      </c>
+      <c r="C668">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>54.87</v>
+      </c>
+      <c r="B669">
+        <v>15.74</v>
+      </c>
+      <c r="C669">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>54.95</v>
+      </c>
+      <c r="B670">
+        <v>15.47</v>
+      </c>
+      <c r="C670">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>54.78</v>
+      </c>
+      <c r="B671">
+        <v>15.43</v>
+      </c>
+      <c r="C671">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>54.49</v>
+      </c>
+      <c r="B672">
+        <v>15.49</v>
+      </c>
+      <c r="C672">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>54.38</v>
+      </c>
+      <c r="B673">
+        <v>15.48</v>
+      </c>
+      <c r="C673">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>54.6</v>
+      </c>
+      <c r="B674">
+        <v>15.73</v>
+      </c>
+      <c r="C674">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>54.76</v>
+      </c>
+      <c r="B675">
+        <v>15.51</v>
+      </c>
+      <c r="C675">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>54.59</v>
+      </c>
+      <c r="B676">
+        <v>15.47</v>
+      </c>
+      <c r="C676">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>54.76</v>
+      </c>
+      <c r="B677">
+        <v>15.76</v>
+      </c>
+      <c r="C677">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>54.68</v>
+      </c>
+      <c r="B678">
+        <v>15.47</v>
+      </c>
+      <c r="C678">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>54.66</v>
+      </c>
+      <c r="B679">
+        <v>15.57</v>
+      </c>
+      <c r="C679">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>54.85</v>
+      </c>
+      <c r="B680">
+        <v>15.6</v>
+      </c>
+      <c r="C680">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>55.04</v>
+      </c>
+      <c r="B681">
+        <v>15.66</v>
+      </c>
+      <c r="C681">
+        <v>39.369999999999997</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>54.44</v>
+      </c>
+      <c r="B682">
+        <v>15.49</v>
+      </c>
+      <c r="C682">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>54.7</v>
+      </c>
+      <c r="B683">
+        <v>15.57</v>
+      </c>
+      <c r="C683">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>54.39</v>
+      </c>
+      <c r="B684">
+        <v>15.44</v>
+      </c>
+      <c r="C684">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>54.88</v>
+      </c>
+      <c r="B685">
+        <v>15.87</v>
+      </c>
+      <c r="C685">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>54.44</v>
+      </c>
+      <c r="B686">
+        <v>15.66</v>
+      </c>
+      <c r="C686">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>54.78</v>
+      </c>
+      <c r="B687">
+        <v>15.57</v>
+      </c>
+      <c r="C687">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>54.81</v>
+      </c>
+      <c r="B688">
+        <v>15.49</v>
+      </c>
+      <c r="C688">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>54.69</v>
+      </c>
+      <c r="B689">
+        <v>15.8</v>
+      </c>
+      <c r="C689">
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>54.71</v>
+      </c>
+      <c r="B690">
+        <v>15.65</v>
+      </c>
+      <c r="C690">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>54.99</v>
+      </c>
+      <c r="B691">
+        <v>16.18</v>
+      </c>
+      <c r="C691">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>54.69</v>
+      </c>
+      <c r="B692">
+        <v>15.61</v>
+      </c>
+      <c r="C692">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>54.69</v>
+      </c>
+      <c r="B693">
+        <v>15.68</v>
+      </c>
+      <c r="C693">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>54.53</v>
+      </c>
+      <c r="B694">
+        <v>15.62</v>
+      </c>
+      <c r="C694">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>54.38</v>
+      </c>
+      <c r="B695">
+        <v>15.2</v>
+      </c>
+      <c r="C695">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>54.82</v>
+      </c>
+      <c r="B696">
+        <v>15.16</v>
+      </c>
+      <c r="C696">
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>54.95</v>
+      </c>
+      <c r="B697">
+        <v>15.84</v>
+      </c>
+      <c r="C697">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>54.49</v>
+      </c>
+      <c r="B698">
+        <v>15.44</v>
+      </c>
+      <c r="C698">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>54.89</v>
+      </c>
+      <c r="B699">
+        <v>15.49</v>
+      </c>
+      <c r="C699">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>54.59</v>
+      </c>
+      <c r="B700">
+        <v>15.3</v>
+      </c>
+      <c r="C700">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>54.34</v>
+      </c>
+      <c r="B701">
+        <v>15.48</v>
+      </c>
+      <c r="C701">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>54.64</v>
+      </c>
+      <c r="B702">
+        <v>15.19</v>
+      </c>
+      <c r="C702">
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>54.33</v>
+      </c>
+      <c r="B703">
+        <v>15.08</v>
+      </c>
+      <c r="C703">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>54.7</v>
+      </c>
+      <c r="B704">
+        <v>15.5</v>
+      </c>
+      <c r="C704">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>54.64</v>
+      </c>
+      <c r="B705">
+        <v>15.11</v>
+      </c>
+      <c r="C705">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>54.78</v>
+      </c>
+      <c r="B706">
+        <v>15.46</v>
+      </c>
+      <c r="C706">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>54.57</v>
+      </c>
+      <c r="B707">
+        <v>15.7</v>
+      </c>
+      <c r="C707">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>54.29</v>
+      </c>
+      <c r="B708">
+        <v>15.2</v>
+      </c>
+      <c r="C708">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>54.77</v>
+      </c>
+      <c r="B709">
+        <v>15.37</v>
+      </c>
+      <c r="C709">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>54.56</v>
+      </c>
+      <c r="B710">
+        <v>15.09</v>
+      </c>
+      <c r="C710">
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>55.06</v>
+      </c>
+      <c r="B711">
+        <v>16.2</v>
+      </c>
+      <c r="C711">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>54.58</v>
+      </c>
+      <c r="B712">
+        <v>15.07</v>
+      </c>
+      <c r="C712">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>54.89</v>
+      </c>
+      <c r="B713">
+        <v>15.62</v>
+      </c>
+      <c r="C713">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>54.44</v>
+      </c>
+      <c r="B714">
+        <v>15.63</v>
+      </c>
+      <c r="C714">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>54.7</v>
+      </c>
+      <c r="B715">
+        <v>15.65</v>
+      </c>
+      <c r="C715">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>54.46</v>
+      </c>
+      <c r="B716">
+        <v>15.29</v>
+      </c>
+      <c r="C716">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>55.58</v>
+      </c>
+      <c r="B717">
+        <v>15.38</v>
+      </c>
+      <c r="C717">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>54.86</v>
+      </c>
+      <c r="B718">
+        <v>15.83</v>
+      </c>
+      <c r="C718">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>54.39</v>
+      </c>
+      <c r="B719">
+        <v>15.34</v>
+      </c>
+      <c r="C719">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>54.45</v>
+      </c>
+      <c r="B720">
+        <v>15.19</v>
+      </c>
+      <c r="C720">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>54.73</v>
+      </c>
+      <c r="B721">
+        <v>15.57</v>
+      </c>
+      <c r="C721">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>55.3</v>
+      </c>
+      <c r="B722">
+        <v>15.67</v>
+      </c>
+      <c r="C722">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>54.43</v>
+      </c>
+      <c r="B723">
+        <v>15.17</v>
+      </c>
+      <c r="C723">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>54.98</v>
+      </c>
+      <c r="B724">
+        <v>15.88</v>
+      </c>
+      <c r="C724">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>54.83</v>
+      </c>
+      <c r="B725">
+        <v>15.22</v>
+      </c>
+      <c r="C725">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>54.48</v>
+      </c>
+      <c r="B726">
+        <v>15.83</v>
+      </c>
+      <c r="C726">
+        <v>38.65</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>55.23</v>
+      </c>
+      <c r="B727">
+        <v>15.27</v>
+      </c>
+      <c r="C727">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>54.72</v>
+      </c>
+      <c r="B728">
+        <v>15.61</v>
+      </c>
+      <c r="C728">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>54.72</v>
+      </c>
+      <c r="B729">
+        <v>15.35</v>
+      </c>
+      <c r="C729">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>54.69</v>
+      </c>
+      <c r="B730">
+        <v>15.46</v>
+      </c>
+      <c r="C730">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>54.7</v>
+      </c>
+      <c r="B731">
+        <v>15.51</v>
+      </c>
+      <c r="C731">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>55.27</v>
+      </c>
+      <c r="B732">
+        <v>16</v>
+      </c>
+      <c r="C732">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>55.01</v>
+      </c>
+      <c r="B733">
+        <v>15.28</v>
+      </c>
+      <c r="C733">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>54.59</v>
+      </c>
+      <c r="B734">
+        <v>15.31</v>
+      </c>
+      <c r="C734">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>55.1</v>
+      </c>
+      <c r="B735">
+        <v>15.41</v>
+      </c>
+      <c r="C735">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>54.8</v>
+      </c>
+      <c r="B736">
+        <v>15.72</v>
+      </c>
+      <c r="C736">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>54.89</v>
+      </c>
+      <c r="B737">
+        <v>15.57</v>
+      </c>
+      <c r="C737">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>54.55</v>
+      </c>
+      <c r="B738">
+        <v>15.24</v>
+      </c>
+      <c r="C738">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>54.83</v>
+      </c>
+      <c r="B739">
+        <v>15.52</v>
+      </c>
+      <c r="C739">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>54.36</v>
+      </c>
+      <c r="B740">
+        <v>15.57</v>
+      </c>
+      <c r="C740">
+        <v>38.79</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>54.38</v>
+      </c>
+      <c r="B741">
+        <v>15.67</v>
+      </c>
+      <c r="C741">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>54.98</v>
+      </c>
+      <c r="B742">
+        <v>15.53</v>
+      </c>
+      <c r="C742">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>54.86</v>
+      </c>
+      <c r="B743">
+        <v>15.52</v>
+      </c>
+      <c r="C743">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>54.86</v>
+      </c>
+      <c r="B744">
+        <v>15.32</v>
+      </c>
+      <c r="C744">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>54.5</v>
+      </c>
+      <c r="B745">
+        <v>15.58</v>
+      </c>
+      <c r="C745">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>54.97</v>
+      </c>
+      <c r="B746">
+        <v>15.72</v>
+      </c>
+      <c r="C746">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>54.73</v>
+      </c>
+      <c r="B747">
+        <v>15.46</v>
+      </c>
+      <c r="C747">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>54.76</v>
+      </c>
+      <c r="B748">
+        <v>15.52</v>
+      </c>
+      <c r="C748">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>54.78</v>
+      </c>
+      <c r="B749">
+        <v>15.44</v>
+      </c>
+      <c r="C749">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>54.76</v>
+      </c>
+      <c r="B750">
+        <v>15.4</v>
+      </c>
+      <c r="C750">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>54.58</v>
+      </c>
+      <c r="B751">
+        <v>15.44</v>
+      </c>
+      <c r="C751">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>54.61</v>
+      </c>
+      <c r="B752">
+        <v>15.65</v>
+      </c>
+      <c r="C752">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>54.9</v>
+      </c>
+      <c r="B753">
+        <v>15.28</v>
+      </c>
+      <c r="C753">
+        <v>39.61</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>54.76</v>
+      </c>
+      <c r="B754">
+        <v>15.19</v>
+      </c>
+      <c r="C754">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>54.87</v>
+      </c>
+      <c r="B755">
+        <v>15.76</v>
+      </c>
+      <c r="C755">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>54.58</v>
+      </c>
+      <c r="B756">
+        <v>15.27</v>
+      </c>
+      <c r="C756">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>54.67</v>
+      </c>
+      <c r="B757">
+        <v>15.46</v>
+      </c>
+      <c r="C757">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>54.84</v>
+      </c>
+      <c r="B758">
+        <v>15.7</v>
+      </c>
+      <c r="C758">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>54.59</v>
+      </c>
+      <c r="B759">
+        <v>15.63</v>
+      </c>
+      <c r="C759">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>55.13</v>
+      </c>
+      <c r="B760">
+        <v>15.58</v>
+      </c>
+      <c r="C760">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>54.92</v>
+      </c>
+      <c r="B761">
+        <v>15.4</v>
+      </c>
+      <c r="C761">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>54.92</v>
+      </c>
+      <c r="B762">
+        <v>15.27</v>
+      </c>
+      <c r="C762">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>54.55</v>
+      </c>
+      <c r="B763">
+        <v>15.33</v>
+      </c>
+      <c r="C763">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>54.77</v>
+      </c>
+      <c r="B764">
+        <v>15.45</v>
+      </c>
+      <c r="C764">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>54.94</v>
+      </c>
+      <c r="B765">
+        <v>15.55</v>
+      </c>
+      <c r="C765">
+        <v>39.369999999999997</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>54.75</v>
+      </c>
+      <c r="B766">
+        <v>15.78</v>
+      </c>
+      <c r="C766">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>54.68</v>
+      </c>
+      <c r="B767">
+        <v>15.57</v>
+      </c>
+      <c r="C767">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>54.6</v>
+      </c>
+      <c r="B768">
+        <v>15.92</v>
+      </c>
+      <c r="C768">
+        <v>38.67</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>54.24</v>
+      </c>
+      <c r="B769">
+        <v>15.5</v>
+      </c>
+      <c r="C769">
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>53.77</v>
+      </c>
+      <c r="B770">
+        <v>15.86</v>
+      </c>
+      <c r="C770">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>54.39</v>
+      </c>
+      <c r="B771">
+        <v>15.05</v>
+      </c>
+      <c r="C771">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>53.87</v>
+      </c>
+      <c r="B772">
+        <v>15.69</v>
+      </c>
+      <c r="C772">
+        <v>38.17</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>54.29</v>
+      </c>
+      <c r="B773">
+        <v>15.5</v>
+      </c>
+      <c r="C773">
+        <v>38.78</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>54.52</v>
+      </c>
+      <c r="B774">
+        <v>15.44</v>
+      </c>
+      <c r="C774">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>54.04</v>
+      </c>
+      <c r="B775">
+        <v>15.38</v>
+      </c>
+      <c r="C775">
+        <v>38.65</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>54.49</v>
+      </c>
+      <c r="B776">
+        <v>15.64</v>
+      </c>
+      <c r="C776">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>54.27</v>
+      </c>
+      <c r="B777">
+        <v>15.6</v>
+      </c>
+      <c r="C777">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>54.75</v>
+      </c>
+      <c r="B778">
+        <v>15.39</v>
+      </c>
+      <c r="C778">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>54.62</v>
+      </c>
+      <c r="B779">
+        <v>15.54</v>
+      </c>
+      <c r="C779">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>54.86</v>
+      </c>
+      <c r="B780">
+        <v>15.61</v>
+      </c>
+      <c r="C780">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>54.52</v>
+      </c>
+      <c r="B781">
+        <v>15.6</v>
+      </c>
+      <c r="C781">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>54.78</v>
+      </c>
+      <c r="B782">
+        <v>15.25</v>
+      </c>
+      <c r="C782">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>54.4</v>
+      </c>
+      <c r="B783">
+        <v>15.4</v>
+      </c>
+      <c r="C783">
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>54.42</v>
+      </c>
+      <c r="B784">
+        <v>15.37</v>
+      </c>
+      <c r="C784">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>54.6</v>
+      </c>
+      <c r="B785">
+        <v>15.23</v>
+      </c>
+      <c r="C785">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>54.64</v>
+      </c>
+      <c r="B786">
+        <v>15.31</v>
+      </c>
+      <c r="C786">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>54.9</v>
+      </c>
+      <c r="B787">
+        <v>15.37</v>
+      </c>
+      <c r="C787">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>54.53</v>
+      </c>
+      <c r="B788">
+        <v>15.05</v>
+      </c>
+      <c r="C788">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>55.14</v>
+      </c>
+      <c r="B789">
+        <v>15.54</v>
+      </c>
+      <c r="C789">
+        <v>39.58</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>54.65</v>
+      </c>
+      <c r="B790">
+        <v>15.25</v>
+      </c>
+      <c r="C790">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>54.7</v>
+      </c>
+      <c r="B791">
+        <v>15.51</v>
+      </c>
+      <c r="C791">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>54.67</v>
+      </c>
+      <c r="B792">
+        <v>15.13</v>
+      </c>
+      <c r="C792">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>54.88</v>
+      </c>
+      <c r="B793">
+        <v>15.37</v>
+      </c>
+      <c r="C793">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>54.61</v>
+      </c>
+      <c r="B794">
+        <v>15.61</v>
+      </c>
+      <c r="C794">
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>54.15</v>
+      </c>
+      <c r="B795">
+        <v>15.31</v>
+      </c>
+      <c r="C795">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>54.43</v>
+      </c>
+      <c r="B796">
+        <v>15.4</v>
+      </c>
+      <c r="C796">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>54.47</v>
+      </c>
+      <c r="B797">
+        <v>15.7</v>
+      </c>
+      <c r="C797">
+        <v>38.76</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>54.61</v>
+      </c>
+      <c r="B798">
+        <v>15.31</v>
+      </c>
+      <c r="C798">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>54.65</v>
+      </c>
+      <c r="B799">
+        <v>15.31</v>
+      </c>
+      <c r="C799">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>54.62</v>
+      </c>
+      <c r="B800">
+        <v>15.77</v>
+      </c>
+      <c r="C800">
+        <v>38.82</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>55.05</v>
+      </c>
+      <c r="B801">
+        <v>15.36</v>
+      </c>
+      <c r="C801">
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>55.04</v>
+      </c>
+      <c r="B802">
+        <v>15.35</v>
+      </c>
+      <c r="C802">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>55.16</v>
+      </c>
+      <c r="B803">
+        <v>15.7</v>
+      </c>
+      <c r="C803">
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>54.55</v>
+      </c>
+      <c r="B804">
+        <v>15.62</v>
+      </c>
+      <c r="C804">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>54.64</v>
+      </c>
+      <c r="B805">
+        <v>15.48</v>
+      </c>
+      <c r="C805">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>54.76</v>
+      </c>
+      <c r="B806">
+        <v>15.36</v>
+      </c>
+      <c r="C806">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>54.79</v>
+      </c>
+      <c r="B807">
+        <v>15.49</v>
+      </c>
+      <c r="C807">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>54.99</v>
+      </c>
+      <c r="B808">
+        <v>15.88</v>
+      </c>
+      <c r="C808">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>54.16</v>
+      </c>
+      <c r="B809">
+        <v>15.57</v>
+      </c>
+      <c r="C809">
+        <v>38.57</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>54.4</v>
+      </c>
+      <c r="B810">
+        <v>15.37</v>
+      </c>
+      <c r="C810">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>54.98</v>
+      </c>
+      <c r="B811">
+        <v>15.65</v>
+      </c>
+      <c r="C811">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>54.86</v>
+      </c>
+      <c r="B812">
+        <v>15.71</v>
+      </c>
+      <c r="C812">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>54.64</v>
+      </c>
+      <c r="B813">
+        <v>15.15</v>
+      </c>
+      <c r="C813">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>54.7</v>
+      </c>
+      <c r="B814">
+        <v>15.38</v>
+      </c>
+      <c r="C814">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>54.52</v>
+      </c>
+      <c r="B815">
+        <v>15.4</v>
+      </c>
+      <c r="C815">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>56</v>
+      </c>
+      <c r="B816">
+        <v>15.9</v>
+      </c>
+      <c r="C816">
+        <v>40.090000000000003</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>54.63</v>
+      </c>
+      <c r="B817">
+        <v>15.48</v>
+      </c>
+      <c r="C817">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>54.67</v>
+      </c>
+      <c r="B818">
+        <v>15.55</v>
+      </c>
+      <c r="C818">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>54.39</v>
+      </c>
+      <c r="B819">
+        <v>15.45</v>
+      </c>
+      <c r="C819">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>54.46</v>
+      </c>
+      <c r="B820">
+        <v>15.5</v>
+      </c>
+      <c r="C820">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>54.49</v>
+      </c>
+      <c r="B821">
+        <v>15.77</v>
+      </c>
+      <c r="C821">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>54.31</v>
+      </c>
+      <c r="B822">
+        <v>15.81</v>
+      </c>
+      <c r="C822">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>54.5</v>
+      </c>
+      <c r="B823">
+        <v>14.76</v>
+      </c>
+      <c r="C823">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>54.72</v>
+      </c>
+      <c r="B824">
+        <v>15.62</v>
+      </c>
+      <c r="C824">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>54.42</v>
+      </c>
+      <c r="B825">
+        <v>15.6</v>
+      </c>
+      <c r="C825">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>54.45</v>
+      </c>
+      <c r="B826">
+        <v>15.46</v>
+      </c>
+      <c r="C826">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>54.44</v>
+      </c>
+      <c r="B827">
+        <v>15.73</v>
+      </c>
+      <c r="C827">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>54.6</v>
+      </c>
+      <c r="B828">
+        <v>15.49</v>
+      </c>
+      <c r="C828">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>54.64</v>
+      </c>
+      <c r="B829">
+        <v>15.82</v>
+      </c>
+      <c r="C829">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>54.83</v>
+      </c>
+      <c r="B830">
+        <v>15.6</v>
+      </c>
+      <c r="C830">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>54.75</v>
+      </c>
+      <c r="B831">
+        <v>15.49</v>
+      </c>
+      <c r="C831">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>54.63</v>
+      </c>
+      <c r="B832">
+        <v>15.52</v>
+      </c>
+      <c r="C832">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>54.41</v>
+      </c>
+      <c r="B833">
+        <v>15.66</v>
+      </c>
+      <c r="C833">
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>55.12</v>
+      </c>
+      <c r="B834">
+        <v>15.91</v>
+      </c>
+      <c r="C834">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>54.95</v>
+      </c>
+      <c r="B835">
+        <v>15.59</v>
+      </c>
+      <c r="C835">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>54.87</v>
+      </c>
+      <c r="B836">
+        <v>15.76</v>
+      </c>
+      <c r="C836">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>54.52</v>
+      </c>
+      <c r="B837">
+        <v>15.41</v>
+      </c>
+      <c r="C837">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>54.89</v>
+      </c>
+      <c r="B838">
+        <v>15.88</v>
+      </c>
+      <c r="C838">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>54.7</v>
+      </c>
+      <c r="B839">
+        <v>15.47</v>
+      </c>
+      <c r="C839">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>54.71</v>
+      </c>
+      <c r="B840">
+        <v>15.67</v>
+      </c>
+      <c r="C840">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>54.53</v>
+      </c>
+      <c r="B841">
+        <v>14.93</v>
+      </c>
+      <c r="C841">
+        <v>39.590000000000003</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>55.32</v>
+      </c>
+      <c r="B842">
+        <v>15.76</v>
+      </c>
+      <c r="C842">
+        <v>39.549999999999997</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>55.15</v>
+      </c>
+      <c r="B843">
+        <v>15.45</v>
+      </c>
+      <c r="C843">
+        <v>39.69</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>54.68</v>
+      </c>
+      <c r="B844">
+        <v>15.29</v>
+      </c>
+      <c r="C844">
+        <v>39.369999999999997</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>54.74</v>
+      </c>
+      <c r="B845">
+        <v>15.64</v>
+      </c>
+      <c r="C845">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>54.88</v>
+      </c>
+      <c r="B846">
+        <v>15.59</v>
+      </c>
+      <c r="C846">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>54.61</v>
+      </c>
+      <c r="B847">
+        <v>15.51</v>
+      </c>
+      <c r="C847">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>54.82</v>
+      </c>
+      <c r="B848">
+        <v>15.47</v>
+      </c>
+      <c r="C848">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>54.82</v>
+      </c>
+      <c r="B849">
+        <v>15.45</v>
+      </c>
+      <c r="C849">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>54.6</v>
+      </c>
+      <c r="B850">
+        <v>15.96</v>
+      </c>
+      <c r="C850">
+        <v>38.630000000000003</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>54.38</v>
+      </c>
+      <c r="B851">
+        <v>14.98</v>
+      </c>
+      <c r="C851">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>54.33</v>
+      </c>
+      <c r="B852">
+        <v>15.56</v>
+      </c>
+      <c r="C852">
+        <v>38.76</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>54.36</v>
+      </c>
+      <c r="B853">
+        <v>15.3</v>
+      </c>
+      <c r="C853">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>54.68</v>
+      </c>
+      <c r="B854">
+        <v>15.33</v>
+      </c>
+      <c r="C854">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>54.41</v>
+      </c>
+      <c r="B855">
+        <v>15.96</v>
+      </c>
+      <c r="C855">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>54.62</v>
+      </c>
+      <c r="B856">
+        <v>15.64</v>
+      </c>
+      <c r="C856">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>54.45</v>
+      </c>
+      <c r="B857">
+        <v>15.81</v>
+      </c>
+      <c r="C857">
+        <v>38.630000000000003</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>54.93</v>
+      </c>
+      <c r="B858">
+        <v>15.89</v>
+      </c>
+      <c r="C858">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>54.6</v>
+      </c>
+      <c r="B859">
+        <v>15.06</v>
+      </c>
+      <c r="C859">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>54.91</v>
+      </c>
+      <c r="B860">
+        <v>15.47</v>
+      </c>
+      <c r="C860">
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>55.05</v>
+      </c>
+      <c r="B861">
+        <v>15.37</v>
+      </c>
+      <c r="C861">
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>54.78</v>
+      </c>
+      <c r="B862">
+        <v>15.7</v>
+      </c>
+      <c r="C862">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>54.65</v>
+      </c>
+      <c r="B863">
+        <v>15.58</v>
+      </c>
+      <c r="C863">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>55</v>
+      </c>
+      <c r="B864">
+        <v>15.69</v>
+      </c>
+      <c r="C864">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>54.76</v>
+      </c>
+      <c r="B865">
+        <v>15.56</v>
+      </c>
+      <c r="C865">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>54.48</v>
+      </c>
+      <c r="B866">
+        <v>15.76</v>
+      </c>
+      <c r="C866">
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>54.83</v>
+      </c>
+      <c r="B867">
+        <v>15.51</v>
+      </c>
+      <c r="C867">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>54.73</v>
+      </c>
+      <c r="B868">
+        <v>15.91</v>
+      </c>
+      <c r="C868">
+        <v>38.82</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>54.63</v>
+      </c>
+      <c r="B869">
+        <v>15.21</v>
+      </c>
+      <c r="C869">
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>54.86</v>
+      </c>
+      <c r="B870">
+        <v>15.89</v>
+      </c>
+      <c r="C870">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>54.69</v>
+      </c>
+      <c r="B871">
+        <v>15.78</v>
+      </c>
+      <c r="C871">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>54.51</v>
+      </c>
+      <c r="B872">
+        <v>15.56</v>
+      </c>
+      <c r="C872">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>54.65</v>
+      </c>
+      <c r="B873">
+        <v>15.42</v>
+      </c>
+      <c r="C873">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>54.75</v>
+      </c>
+      <c r="B874">
+        <v>15.79</v>
+      </c>
+      <c r="C874">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>54.96</v>
+      </c>
+      <c r="B875">
+        <v>15.36</v>
+      </c>
+      <c r="C875">
+        <v>39.58</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>55.21</v>
+      </c>
+      <c r="B876">
+        <v>15.78</v>
+      </c>
+      <c r="C876">
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>54.34</v>
+      </c>
+      <c r="B877">
+        <v>15.47</v>
+      </c>
+      <c r="C877">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>54.82</v>
+      </c>
+      <c r="B878">
+        <v>15.39</v>
+      </c>
+      <c r="C878">
+        <v>39.42</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>54.78</v>
+      </c>
+      <c r="B879">
+        <v>15.6</v>
+      </c>
+      <c r="C879">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>54.24</v>
+      </c>
+      <c r="B880">
+        <v>15.19</v>
+      </c>
+      <c r="C880">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>54.29</v>
+      </c>
+      <c r="B881">
+        <v>15.06</v>
+      </c>
+      <c r="C881">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>54.32</v>
+      </c>
+      <c r="B882">
+        <v>15.4</v>
+      </c>
+      <c r="C882">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>54.77</v>
+      </c>
+      <c r="B883">
+        <v>15.28</v>
+      </c>
+      <c r="C883">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>54.61</v>
+      </c>
+      <c r="B884">
+        <v>15.42</v>
+      </c>
+      <c r="C884">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>54.75</v>
+      </c>
+      <c r="B885">
+        <v>15.66</v>
+      </c>
+      <c r="C885">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>54.29</v>
+      </c>
+      <c r="B886">
+        <v>15.11</v>
+      </c>
+      <c r="C886">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>54.8</v>
+      </c>
+      <c r="B887">
+        <v>15.62</v>
+      </c>
+      <c r="C887">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>54.98</v>
+      </c>
+      <c r="B888">
+        <v>15.86</v>
+      </c>
+      <c r="C888">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>54.56</v>
+      </c>
+      <c r="B889">
+        <v>15.34</v>
+      </c>
+      <c r="C889">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>55.35</v>
+      </c>
+      <c r="B890">
+        <v>15.61</v>
+      </c>
+      <c r="C890">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>55.29</v>
+      </c>
+      <c r="B891">
+        <v>15.61</v>
+      </c>
+      <c r="C891">
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>55.13</v>
+      </c>
+      <c r="B892">
+        <v>15.79</v>
+      </c>
+      <c r="C892">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>55.77</v>
+      </c>
+      <c r="B893">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="C893">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>54.55</v>
+      </c>
+      <c r="B894">
+        <v>15.45</v>
+      </c>
+      <c r="C894">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>54.87</v>
+      </c>
+      <c r="B895">
+        <v>15.33</v>
+      </c>
+      <c r="C895">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>55.1</v>
+      </c>
+      <c r="B896">
+        <v>15.72</v>
+      </c>
+      <c r="C896">
+        <v>39.369999999999997</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>54.62</v>
+      </c>
+      <c r="B897">
+        <v>15.61</v>
+      </c>
+      <c r="C897">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>54.78</v>
+      </c>
+      <c r="B898">
+        <v>15</v>
+      </c>
+      <c r="C898">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>54.77</v>
+      </c>
+      <c r="B899">
+        <v>15.46</v>
+      </c>
+      <c r="C899">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>54.96</v>
+      </c>
+      <c r="B900">
+        <v>15.49</v>
+      </c>
+      <c r="C900">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>54.91</v>
+      </c>
+      <c r="B901">
+        <v>15.76</v>
+      </c>
+      <c r="C901">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>54.71</v>
+      </c>
+      <c r="B902">
+        <v>15.97</v>
+      </c>
+      <c r="C902">
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>54.66</v>
+      </c>
+      <c r="B903">
+        <v>15.63</v>
+      </c>
+      <c r="C903">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>54.75</v>
+      </c>
+      <c r="B904">
+        <v>15.28</v>
+      </c>
+      <c r="C904">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>54.63</v>
+      </c>
+      <c r="B905">
+        <v>15.78</v>
+      </c>
+      <c r="C905">
+        <v>38.840000000000003</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>54.53</v>
+      </c>
+      <c r="B906">
+        <v>15.74</v>
+      </c>
+      <c r="C906">
+        <v>38.78</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>54.85</v>
+      </c>
+      <c r="B907">
+        <v>15.59</v>
+      </c>
+      <c r="C907">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>54.93</v>
+      </c>
+      <c r="B908">
+        <v>15.99</v>
+      </c>
+      <c r="C908">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>55.15</v>
+      </c>
+      <c r="B909">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C909">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>54.51</v>
+      </c>
+      <c r="B910">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C910">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>55.03</v>
+      </c>
+      <c r="B911">
+        <v>15.45</v>
+      </c>
+      <c r="C911">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>54.68</v>
+      </c>
+      <c r="B912">
+        <v>15.53</v>
+      </c>
+      <c r="C912">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>54.34</v>
+      </c>
+      <c r="B913">
+        <v>15.28</v>
+      </c>
+      <c r="C913">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>55.11</v>
+      </c>
+      <c r="B914">
+        <v>15.47</v>
+      </c>
+      <c r="C914">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>54.81</v>
+      </c>
+      <c r="B915">
+        <v>15.5</v>
+      </c>
+      <c r="C915">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>54.85</v>
+      </c>
+      <c r="B916">
+        <v>15.56</v>
+      </c>
+      <c r="C916">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>54.53</v>
+      </c>
+      <c r="B917">
+        <v>15.42</v>
+      </c>
+      <c r="C917">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>54.35</v>
+      </c>
+      <c r="B918">
+        <v>15.34</v>
+      </c>
+      <c r="C918">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>54.61</v>
+      </c>
+      <c r="B919">
+        <v>15.45</v>
+      </c>
+      <c r="C919">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>54.49</v>
+      </c>
+      <c r="B920">
+        <v>15.76</v>
+      </c>
+      <c r="C920">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>54.8</v>
+      </c>
+      <c r="B921">
+        <v>15.4</v>
+      </c>
+      <c r="C921">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>54.46</v>
+      </c>
+      <c r="B922">
+        <v>15.85</v>
+      </c>
+      <c r="C922">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>54.58</v>
+      </c>
+      <c r="B923">
+        <v>15.31</v>
+      </c>
+      <c r="C923">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>54.56</v>
+      </c>
+      <c r="B924">
+        <v>15.59</v>
+      </c>
+      <c r="C924">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>54.9</v>
+      </c>
+      <c r="B925">
+        <v>15.94</v>
+      </c>
+      <c r="C925">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>54.8</v>
+      </c>
+      <c r="B926">
+        <v>15.88</v>
+      </c>
+      <c r="C926">
+        <v>38.92</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>54.75</v>
+      </c>
+      <c r="B927">
+        <v>15.66</v>
+      </c>
+      <c r="C927">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>54.82</v>
+      </c>
+      <c r="B928">
+        <v>15.53</v>
+      </c>
+      <c r="C928">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>54.74</v>
+      </c>
+      <c r="B929">
+        <v>15.59</v>
+      </c>
+      <c r="C929">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>55.27</v>
+      </c>
+      <c r="B930">
+        <v>15.73</v>
+      </c>
+      <c r="C930">
+        <v>39.54</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>55.02</v>
+      </c>
+      <c r="B931">
+        <v>15.76</v>
+      </c>
+      <c r="C931">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>55.05</v>
+      </c>
+      <c r="B932">
+        <v>15.24</v>
+      </c>
+      <c r="C932">
+        <v>39.78</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>54.57</v>
+      </c>
+      <c r="B933">
+        <v>15.87</v>
+      </c>
+      <c r="C933">
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>54.67</v>
+      </c>
+      <c r="B934">
+        <v>15.52</v>
+      </c>
+      <c r="C934">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>54.82</v>
+      </c>
+      <c r="B935">
+        <v>15.66</v>
+      </c>
+      <c r="C935">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>54.67</v>
+      </c>
+      <c r="B936">
+        <v>15.4</v>
+      </c>
+      <c r="C936">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>54.83</v>
+      </c>
+      <c r="B937">
+        <v>15.29</v>
+      </c>
+      <c r="C937">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>55.14</v>
+      </c>
+      <c r="B938">
+        <v>15.83</v>
+      </c>
+      <c r="C938">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>55.07</v>
+      </c>
+      <c r="B939">
+        <v>15.74</v>
+      </c>
+      <c r="C939">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>54.86</v>
+      </c>
+      <c r="B940">
+        <v>15.63</v>
+      </c>
+      <c r="C940">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>54.55</v>
+      </c>
+      <c r="B941">
+        <v>15.13</v>
+      </c>
+      <c r="C941">
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>54.72</v>
+      </c>
+      <c r="B942">
+        <v>15.57</v>
+      </c>
+      <c r="C942">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>54.81</v>
+      </c>
+      <c r="B943">
+        <v>15.5</v>
+      </c>
+      <c r="C943">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>54.47</v>
+      </c>
+      <c r="B944">
+        <v>15.3</v>
+      </c>
+      <c r="C944">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>54.72</v>
+      </c>
+      <c r="B945">
+        <v>15.55</v>
+      </c>
+      <c r="C945">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>54.51</v>
+      </c>
+      <c r="B946">
+        <v>15.32</v>
+      </c>
+      <c r="C946">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>54.52</v>
+      </c>
+      <c r="B947">
+        <v>15.39</v>
+      </c>
+      <c r="C947">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>54.73</v>
+      </c>
+      <c r="B948">
+        <v>15.35</v>
+      </c>
+      <c r="C948">
+        <v>39.369999999999997</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>54.57</v>
+      </c>
+      <c r="B949">
+        <v>15.69</v>
+      </c>
+      <c r="C949">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>53.9</v>
+      </c>
+      <c r="B950">
+        <v>15.59</v>
+      </c>
+      <c r="C950">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>54.44</v>
+      </c>
+      <c r="B951">
+        <v>15.58</v>
+      </c>
+      <c r="C951">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>54.34</v>
+      </c>
+      <c r="B952">
+        <v>15.82</v>
+      </c>
+      <c r="C952">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>54.32</v>
+      </c>
+      <c r="B953">
+        <v>15.12</v>
+      </c>
+      <c r="C953">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>54.64</v>
+      </c>
+      <c r="B954">
+        <v>15.58</v>
+      </c>
+      <c r="C954">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>54.65</v>
+      </c>
+      <c r="B955">
+        <v>15.27</v>
+      </c>
+      <c r="C955">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>54.71</v>
+      </c>
+      <c r="B956">
+        <v>15.52</v>
+      </c>
+      <c r="C956">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>54.82</v>
+      </c>
+      <c r="B957">
+        <v>15.57</v>
+      </c>
+      <c r="C957">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>54.84</v>
+      </c>
+      <c r="B958">
+        <v>15.55</v>
+      </c>
+      <c r="C958">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>54.8</v>
+      </c>
+      <c r="B959">
+        <v>15.83</v>
+      </c>
+      <c r="C959">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>54.78</v>
+      </c>
+      <c r="B960">
+        <v>15.48</v>
+      </c>
+      <c r="C960">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>55.39</v>
+      </c>
+      <c r="B961">
+        <v>15.62</v>
+      </c>
+      <c r="C961">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>54.85</v>
+      </c>
+      <c r="B962">
+        <v>15.31</v>
+      </c>
+      <c r="C962">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>54.52</v>
+      </c>
+      <c r="B963">
+        <v>15.43</v>
+      </c>
+      <c r="C963">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>54.88</v>
+      </c>
+      <c r="B964">
+        <v>15.27</v>
+      </c>
+      <c r="C964">
+        <v>39.61</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>54.82</v>
+      </c>
+      <c r="B965">
+        <v>15.46</v>
+      </c>
+      <c r="C965">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>54.65</v>
+      </c>
+      <c r="B966">
+        <v>16.14</v>
+      </c>
+      <c r="C966">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>54.89</v>
+      </c>
+      <c r="B967">
+        <v>15.84</v>
+      </c>
+      <c r="C967">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>55</v>
+      </c>
+      <c r="B968">
+        <v>15.37</v>
+      </c>
+      <c r="C968">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>54.8</v>
+      </c>
+      <c r="B969">
+        <v>15.21</v>
+      </c>
+      <c r="C969">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>54.84</v>
+      </c>
+      <c r="B970">
+        <v>15.34</v>
+      </c>
+      <c r="C970">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>54.72</v>
+      </c>
+      <c r="B971">
+        <v>15.11</v>
+      </c>
+      <c r="C971">
+        <v>39.61</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>55.18</v>
+      </c>
+      <c r="B972">
+        <v>15.5</v>
+      </c>
+      <c r="C972">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>54.92</v>
+      </c>
+      <c r="B973">
+        <v>15.53</v>
+      </c>
+      <c r="C973">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>55.03</v>
+      </c>
+      <c r="B974">
+        <v>15.34</v>
+      </c>
+      <c r="C974">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>54.84</v>
+      </c>
+      <c r="B975">
+        <v>15.57</v>
+      </c>
+      <c r="C975">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>55.01</v>
+      </c>
+      <c r="B976">
+        <v>15.18</v>
+      </c>
+      <c r="C976">
+        <v>39.82</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>54.65</v>
+      </c>
+      <c r="B977">
+        <v>15.24</v>
+      </c>
+      <c r="C977">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>54.98</v>
+      </c>
+      <c r="B978">
+        <v>15.66</v>
+      </c>
+      <c r="C978">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>55.29</v>
+      </c>
+      <c r="B979">
+        <v>15.72</v>
+      </c>
+      <c r="C979">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>54.57</v>
+      </c>
+      <c r="B980">
+        <v>15.68</v>
+      </c>
+      <c r="C980">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>55.11</v>
+      </c>
+      <c r="B981">
+        <v>15.84</v>
+      </c>
+      <c r="C981">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>54.96</v>
+      </c>
+      <c r="B982">
+        <v>15.52</v>
+      </c>
+      <c r="C982">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>54.98</v>
+      </c>
+      <c r="B983">
+        <v>15.58</v>
+      </c>
+      <c r="C983">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>54.93</v>
+      </c>
+      <c r="B984">
+        <v>15.21</v>
+      </c>
+      <c r="C984">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>54.79</v>
+      </c>
+      <c r="B985">
+        <v>15.88</v>
+      </c>
+      <c r="C985">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>55.1</v>
+      </c>
+      <c r="B986">
+        <v>15.48</v>
+      </c>
+      <c r="C986">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>54.64</v>
+      </c>
+      <c r="B987">
+        <v>15.54</v>
+      </c>
+      <c r="C987">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>54.81</v>
+      </c>
+      <c r="B988">
+        <v>15.31</v>
+      </c>
+      <c r="C988">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>55.24</v>
+      </c>
+      <c r="B989">
+        <v>15.51</v>
+      </c>
+      <c r="C989">
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>54.56</v>
+      </c>
+      <c r="B990">
+        <v>15.19</v>
+      </c>
+      <c r="C990">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>54.52</v>
+      </c>
+      <c r="B991">
+        <v>15.45</v>
+      </c>
+      <c r="C991">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>54.77</v>
+      </c>
+      <c r="B992">
+        <v>15.19</v>
+      </c>
+      <c r="C992">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>54.74</v>
+      </c>
+      <c r="B993">
+        <v>15.42</v>
+      </c>
+      <c r="C993">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>54.53</v>
+      </c>
+      <c r="B994">
+        <v>15.41</v>
+      </c>
+      <c r="C994">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>54.89</v>
+      </c>
+      <c r="B995">
+        <v>15.26</v>
+      </c>
+      <c r="C995">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>55.13</v>
+      </c>
+      <c r="B996">
+        <v>15.47</v>
+      </c>
+      <c r="C996">
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>54.77</v>
+      </c>
+      <c r="B997">
+        <v>15.38</v>
+      </c>
+      <c r="C997">
+        <v>39.369999999999997</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>54.93</v>
+      </c>
+      <c r="B998">
+        <v>15.24</v>
+      </c>
+      <c r="C998">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>54.72</v>
+      </c>
+      <c r="B999">
+        <v>15.28</v>
+      </c>
+      <c r="C999">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>54.75</v>
+      </c>
+      <c r="B1000">
+        <v>15.49</v>
+      </c>
+      <c r="C1000">
+        <v>39.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
